--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_16_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_16_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3022933.369591981</v>
+        <v>-3023759.662426473</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3232064.881861078</v>
+        <v>3232064.881861079</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1370,10 +1370,10 @@
         <v>287.8716252173193</v>
       </c>
       <c r="C11" t="n">
-        <v>275.882942175001</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>266.864246219529</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>309.1594978745046</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>75.25427751271073</v>
       </c>
       <c r="I11" t="n">
-        <v>47.57772831531518</v>
+        <v>47.57772831531523</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.54719260666903</v>
+        <v>70.54719260666906</v>
       </c>
       <c r="T11" t="n">
         <v>117.4676296620864</v>
       </c>
       <c r="U11" t="n">
-        <v>150.0608464255998</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>231.3780024574984</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>256.6781019354553</v>
       </c>
       <c r="X11" t="n">
         <v>275.9783601682019</v>
       </c>
       <c r="Y11" t="n">
-        <v>157.8773050499342</v>
+        <v>287.3749579644007</v>
       </c>
     </row>
     <row r="12">
@@ -1458,16 +1458,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>31.11538116410475</v>
       </c>
       <c r="G12" t="n">
-        <v>127.1458850439559</v>
+        <v>24.91440613843622</v>
       </c>
       <c r="H12" t="n">
-        <v>96.08621347328979</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>57.53030467618051</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>40.85006423600236</v>
       </c>
       <c r="S12" t="n">
-        <v>145.7858681427258</v>
+        <v>110.2725476863166</v>
       </c>
       <c r="T12" t="n">
-        <v>98.70950621627875</v>
+        <v>83.37638701111987</v>
       </c>
       <c r="U12" t="n">
-        <v>114.0589359712985</v>
+        <v>216.2904148768182</v>
       </c>
       <c r="V12" t="n">
-        <v>123.8801874206297</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>93.70633933546367</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>88.36463418139726</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.48833609201634</v>
+        <v>79.48833609201637</v>
       </c>
       <c r="C13" t="n">
-        <v>65.68833093741682</v>
+        <v>65.68833093741685</v>
       </c>
       <c r="D13" t="n">
-        <v>49.30969533499521</v>
+        <v>49.30969533499524</v>
       </c>
       <c r="E13" t="n">
-        <v>48.25744519077466</v>
+        <v>48.25744519077469</v>
       </c>
       <c r="F13" t="n">
-        <v>48.72436951896097</v>
+        <v>48.724369518961</v>
       </c>
       <c r="G13" t="n">
-        <v>64.75147754526341</v>
+        <v>64.75147754526344</v>
       </c>
       <c r="H13" t="n">
-        <v>53.3460979379593</v>
+        <v>53.34609793795934</v>
       </c>
       <c r="I13" t="n">
-        <v>33.08368730955448</v>
+        <v>33.08368730955546</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.66232683265952</v>
+        <v>34.66232683265955</v>
       </c>
       <c r="S13" t="n">
         <v>105.0262857884477</v>
       </c>
       <c r="T13" t="n">
-        <v>127.5577801408552</v>
+        <v>127.5577801408553</v>
       </c>
       <c r="U13" t="n">
         <v>182.0733530450871</v>
       </c>
       <c r="V13" t="n">
-        <v>155.8964724916419</v>
+        <v>155.896472491642</v>
       </c>
       <c r="W13" t="n">
         <v>181.0633585622552</v>
       </c>
       <c r="X13" t="n">
-        <v>126.7084605580593</v>
+        <v>126.7084605580583</v>
       </c>
       <c r="Y13" t="n">
         <v>117.583328314126</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>287.8716252173193</v>
       </c>
       <c r="C14" t="n">
-        <v>275.882942175001</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>266.864246219529</v>
@@ -1616,16 +1616,16 @@
         <v>288.6063837894345</v>
       </c>
       <c r="F14" t="n">
-        <v>145.5492583287558</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>88.96021757573281</v>
       </c>
       <c r="H14" t="n">
         <v>221.6087210113936</v>
       </c>
       <c r="I14" t="n">
-        <v>47.57772831531518</v>
+        <v>47.57772831531522</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.54719260666903</v>
+        <v>70.54719260666906</v>
       </c>
       <c r="T14" t="n">
         <v>117.4676296620864</v>
       </c>
       <c r="U14" t="n">
-        <v>150.0608464255998</v>
+        <v>150.0608464255999</v>
       </c>
       <c r="V14" t="n">
-        <v>231.3780024574984</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>256.6781019354553</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>275.9783601682019</v>
       </c>
       <c r="Y14" t="n">
         <v>287.3749579644007</v>
@@ -1701,7 +1701,7 @@
         <v>127.1458850439559</v>
       </c>
       <c r="H15" t="n">
-        <v>96.08621347328979</v>
+        <v>0.5705753278278755</v>
       </c>
       <c r="I15" t="n">
         <v>57.53030467618051</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>40.85006423600236</v>
+        <v>40.85006423600237</v>
       </c>
       <c r="S15" t="n">
         <v>145.7858681427258</v>
       </c>
       <c r="T15" t="n">
-        <v>90.09222777117834</v>
+        <v>185.6078659166395</v>
       </c>
       <c r="U15" t="n">
         <v>216.2904148768182</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.48833609201634</v>
+        <v>79.48833609201637</v>
       </c>
       <c r="C16" t="n">
-        <v>65.68833093741682</v>
+        <v>65.68833093741685</v>
       </c>
       <c r="D16" t="n">
-        <v>49.30969533499521</v>
+        <v>49.30969533499524</v>
       </c>
       <c r="E16" t="n">
-        <v>48.25744519077466</v>
+        <v>48.25744519077469</v>
       </c>
       <c r="F16" t="n">
-        <v>48.72436951896097</v>
+        <v>48.724369518961</v>
       </c>
       <c r="G16" t="n">
-        <v>64.75147754526341</v>
+        <v>64.75147754526344</v>
       </c>
       <c r="H16" t="n">
-        <v>53.3460979379593</v>
+        <v>53.34609793795933</v>
       </c>
       <c r="I16" t="n">
-        <v>33.08368730955448</v>
+        <v>33.08368730955451</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.66232683265953</v>
+        <v>34.66232683265956</v>
       </c>
       <c r="S16" t="n">
         <v>105.0262857884477</v>
       </c>
       <c r="T16" t="n">
-        <v>127.5577801408552</v>
+        <v>127.5577801408553</v>
       </c>
       <c r="U16" t="n">
         <v>182.0733530450871</v>
       </c>
       <c r="V16" t="n">
-        <v>155.8964724916419</v>
+        <v>155.896472491642</v>
       </c>
       <c r="W16" t="n">
         <v>181.0633585622552</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>217.3244326106502</v>
+        <v>217.3244326106501</v>
       </c>
       <c r="C17" t="n">
-        <v>205.335749568332</v>
+        <v>205.3357495683318</v>
       </c>
       <c r="D17" t="n">
-        <v>196.31705361286</v>
+        <v>196.3170536128598</v>
       </c>
       <c r="E17" t="n">
-        <v>218.0591911827655</v>
+        <v>218.0591911827653</v>
       </c>
       <c r="F17" t="n">
-        <v>237.2310072707427</v>
+        <v>237.2310072707425</v>
       </c>
       <c r="G17" t="n">
-        <v>238.6123052678356</v>
+        <v>238.6123052678354</v>
       </c>
       <c r="H17" t="n">
-        <v>151.0615284047246</v>
+        <v>151.0615284047244</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>46.92043705541738</v>
+        <v>46.92043705541724</v>
       </c>
       <c r="U17" t="n">
-        <v>79.51365381893082</v>
+        <v>79.51365381893066</v>
       </c>
       <c r="V17" t="n">
-        <v>160.8308098508294</v>
+        <v>160.8308098508292</v>
       </c>
       <c r="W17" t="n">
-        <v>186.1309093287863</v>
+        <v>186.1309093287861</v>
       </c>
       <c r="X17" t="n">
-        <v>205.4311675615329</v>
+        <v>205.4311675615327</v>
       </c>
       <c r="Y17" t="n">
-        <v>216.8277653577316</v>
+        <v>216.8277653577315</v>
       </c>
     </row>
     <row r="18">
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.85006423600236</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>145.7858681427258</v>
+        <v>91.12029423326629</v>
       </c>
       <c r="T18" t="n">
-        <v>90.09222777117834</v>
+        <v>185.6078659166395</v>
       </c>
       <c r="U18" t="n">
         <v>216.2904148768182</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.941143485347311</v>
+        <v>8.941143485347169</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2017,13 +2017,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>66.07946360921501</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>135.3151662150742</v>
+        <v>4.083525565933885</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>41.95172126025992</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.4192885140925</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.47909318177867</v>
+        <v>34.47909318177852</v>
       </c>
       <c r="T19" t="n">
-        <v>57.01058753418621</v>
+        <v>57.01058753418607</v>
       </c>
       <c r="U19" t="n">
-        <v>111.5261604384181</v>
+        <v>111.526160438418</v>
       </c>
       <c r="V19" t="n">
-        <v>85.3492798849729</v>
+        <v>85.34927988497276</v>
       </c>
       <c r="W19" t="n">
-        <v>110.5161659555862</v>
+        <v>110.516165955586</v>
       </c>
       <c r="X19" t="n">
-        <v>56.16126795138928</v>
+        <v>56.16126795138914</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.03613570745696</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>217.3244326106502</v>
       </c>
       <c r="C20" t="n">
-        <v>205.3357495683319</v>
+        <v>205.335749568332</v>
       </c>
       <c r="D20" t="n">
-        <v>196.3170536128599</v>
+        <v>196.31705361286</v>
       </c>
       <c r="E20" t="n">
         <v>218.0591911827655</v>
       </c>
       <c r="F20" t="n">
-        <v>237.2310072707426</v>
+        <v>237.2310072707427</v>
       </c>
       <c r="G20" t="n">
         <v>238.6123052678356</v>
       </c>
       <c r="H20" t="n">
-        <v>151.0615284047245</v>
+        <v>151.0615284047246</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>46.92043705541735</v>
+        <v>46.92043705541738</v>
       </c>
       <c r="U20" t="n">
-        <v>79.51365381893079</v>
+        <v>79.51365381893082</v>
       </c>
       <c r="V20" t="n">
-        <v>160.8308098508293</v>
+        <v>160.8308098508294</v>
       </c>
       <c r="W20" t="n">
-        <v>186.1309093287862</v>
+        <v>186.1309093287863</v>
       </c>
       <c r="X20" t="n">
-        <v>205.4311675615328</v>
+        <v>205.4311675615329</v>
       </c>
       <c r="Y20" t="n">
         <v>216.8277653577316</v>
@@ -2175,10 +2175,10 @@
         <v>127.1458850439559</v>
       </c>
       <c r="H21" t="n">
-        <v>96.08621347328979</v>
+        <v>58.10088000400839</v>
       </c>
       <c r="I21" t="n">
-        <v>2.864730766721935</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>40.85006423600235</v>
       </c>
       <c r="S21" t="n">
         <v>145.7858681427258</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37.55710179744783</v>
+        <v>8.941143485347311</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>64.50082408610992</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>17.4192885140925</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>136.8938057381792</v>
       </c>
       <c r="S22" t="n">
-        <v>34.47909318177864</v>
+        <v>34.47909318177867</v>
       </c>
       <c r="T22" t="n">
-        <v>57.01058753418618</v>
+        <v>57.01058753418621</v>
       </c>
       <c r="U22" t="n">
         <v>111.5261604384181</v>
       </c>
       <c r="V22" t="n">
-        <v>85.34927988497287</v>
+        <v>85.3492798849729</v>
       </c>
       <c r="W22" t="n">
-        <v>110.5161659555861</v>
+        <v>110.5161659555862</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>56.16126795138928</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.03613570745694</v>
+        <v>47.03613570745696</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2318,22 @@
         <v>217.3244326106502</v>
       </c>
       <c r="C23" t="n">
-        <v>205.3357495683319</v>
+        <v>205.335749568332</v>
       </c>
       <c r="D23" t="n">
-        <v>196.3170536128599</v>
+        <v>196.31705361286</v>
       </c>
       <c r="E23" t="n">
         <v>218.0591911827655</v>
       </c>
       <c r="F23" t="n">
-        <v>237.2310072707426</v>
+        <v>237.2310072707427</v>
       </c>
       <c r="G23" t="n">
         <v>238.6123052678356</v>
       </c>
       <c r="H23" t="n">
-        <v>151.0615284047245</v>
+        <v>151.0615284047246</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>46.92043705541735</v>
+        <v>46.92043705541738</v>
       </c>
       <c r="U23" t="n">
-        <v>79.51365381893078</v>
+        <v>79.51365381893081</v>
       </c>
       <c r="V23" t="n">
-        <v>160.8308098508293</v>
+        <v>160.8308098508294</v>
       </c>
       <c r="W23" t="n">
-        <v>186.1309093287862</v>
+        <v>186.1309093287863</v>
       </c>
       <c r="X23" t="n">
-        <v>205.4311675615328</v>
+        <v>205.4311675615329</v>
       </c>
       <c r="Y23" t="n">
         <v>216.8277653577316</v>
@@ -2412,7 +2412,7 @@
         <v>127.1458850439559</v>
       </c>
       <c r="H24" t="n">
-        <v>96.08621347328979</v>
+        <v>96.08621347328977</v>
       </c>
       <c r="I24" t="n">
         <v>57.53030467618051</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>40.85006423600236</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>50.27022999726478</v>
+        <v>91.1202942332681</v>
       </c>
       <c r="T24" t="n">
         <v>185.6078659166395</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.941143485347283</v>
+        <v>8.941143485347311</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>68.32499424208736</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.0352468261931</v>
       </c>
       <c r="S25" t="n">
-        <v>34.47909318177864</v>
+        <v>34.47909318177867</v>
       </c>
       <c r="T25" t="n">
-        <v>57.01058753418618</v>
+        <v>57.01058753418621</v>
       </c>
       <c r="U25" t="n">
-        <v>111.5261604384181</v>
+        <v>284.3048319506068</v>
       </c>
       <c r="V25" t="n">
-        <v>85.34927988497287</v>
+        <v>85.3492798849729</v>
       </c>
       <c r="W25" t="n">
-        <v>110.5161659555861</v>
+        <v>110.5161659555862</v>
       </c>
       <c r="X25" t="n">
-        <v>56.16126795138925</v>
+        <v>56.16126795138928</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.03613570745694</v>
+        <v>47.03613570745696</v>
       </c>
     </row>
     <row r="26">
@@ -2555,19 +2555,19 @@
         <v>287.8716252173193</v>
       </c>
       <c r="C26" t="n">
-        <v>275.882942175001</v>
+        <v>275.8829421750011</v>
       </c>
       <c r="D26" t="n">
         <v>266.864246219529</v>
       </c>
       <c r="E26" t="n">
-        <v>288.6063837894345</v>
+        <v>288.6063837894346</v>
       </c>
       <c r="F26" t="n">
         <v>307.7781998774117</v>
       </c>
       <c r="G26" t="n">
-        <v>309.1594978745046</v>
+        <v>309.1594978745047</v>
       </c>
       <c r="H26" t="n">
         <v>221.6087210113936</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.54719260666904</v>
+        <v>70.54719260666907</v>
       </c>
       <c r="T26" t="n">
-        <v>117.4676296620864</v>
+        <v>117.4676296620865</v>
       </c>
       <c r="U26" t="n">
-        <v>150.0608464255998</v>
+        <v>150.0608464255999</v>
       </c>
       <c r="V26" t="n">
         <v>231.3780024574984</v>
@@ -2618,7 +2618,7 @@
         <v>256.6781019354553</v>
       </c>
       <c r="X26" t="n">
-        <v>275.9783601682019</v>
+        <v>275.978360168202</v>
       </c>
       <c r="Y26" t="n">
         <v>287.3749579644007</v>
@@ -2649,7 +2649,7 @@
         <v>127.1458850439559</v>
       </c>
       <c r="H27" t="n">
-        <v>96.08621347328979</v>
+        <v>96.08621347328977</v>
       </c>
       <c r="I27" t="n">
         <v>57.53030467618051</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>40.85006423600236</v>
+        <v>40.85006423600235</v>
       </c>
       <c r="S27" t="n">
         <v>145.7858681427258</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.48833609201635</v>
+        <v>79.48833609201638</v>
       </c>
       <c r="C28" t="n">
-        <v>65.68833093741684</v>
+        <v>65.68833093741686</v>
       </c>
       <c r="D28" t="n">
-        <v>49.30969533499523</v>
+        <v>49.30969533499525</v>
       </c>
       <c r="E28" t="n">
-        <v>48.25744519077467</v>
+        <v>48.2574451907747</v>
       </c>
       <c r="F28" t="n">
-        <v>48.72436951896098</v>
+        <v>48.72436951896101</v>
       </c>
       <c r="G28" t="n">
-        <v>64.75147754526343</v>
+        <v>64.75147754526346</v>
       </c>
       <c r="H28" t="n">
-        <v>53.34609793795931</v>
+        <v>53.34609793795934</v>
       </c>
       <c r="I28" t="n">
-        <v>33.08368730955449</v>
+        <v>33.08368730955452</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66232683265955</v>
+        <v>34.66232683265957</v>
       </c>
       <c r="S28" t="n">
         <v>105.0262857884477</v>
       </c>
       <c r="T28" t="n">
-        <v>127.5577801408552</v>
+        <v>127.5577801408553</v>
       </c>
       <c r="U28" t="n">
-        <v>182.0733530450871</v>
+        <v>182.0733530450872</v>
       </c>
       <c r="V28" t="n">
-        <v>155.8964724916419</v>
+        <v>155.896472491642</v>
       </c>
       <c r="W28" t="n">
         <v>181.0633585622552</v>
@@ -2798,19 +2798,19 @@
         <v>266.864246219529</v>
       </c>
       <c r="E29" t="n">
-        <v>288.6063837894345</v>
+        <v>288.6063837894346</v>
       </c>
       <c r="F29" t="n">
         <v>307.7781998774117</v>
       </c>
       <c r="G29" t="n">
-        <v>309.1594978745046</v>
+        <v>309.1594978745047</v>
       </c>
       <c r="H29" t="n">
         <v>221.6087210113936</v>
       </c>
       <c r="I29" t="n">
-        <v>47.57772831531523</v>
+        <v>47.57772831531521</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.54719260666906</v>
+        <v>70.54719260666907</v>
       </c>
       <c r="T29" t="n">
-        <v>117.4676296620864</v>
+        <v>117.4676296620865</v>
       </c>
       <c r="U29" t="n">
         <v>150.0608464255999</v>
@@ -2855,7 +2855,7 @@
         <v>256.6781019354553</v>
       </c>
       <c r="X29" t="n">
-        <v>275.9783601682019</v>
+        <v>275.978360168202</v>
       </c>
       <c r="Y29" t="n">
         <v>287.3749579644007</v>
@@ -2886,7 +2886,7 @@
         <v>127.1458850439559</v>
       </c>
       <c r="H30" t="n">
-        <v>96.08621347328979</v>
+        <v>96.08621347328977</v>
       </c>
       <c r="I30" t="n">
         <v>57.53030467618051</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>40.85006423600236</v>
+        <v>40.85006423600235</v>
       </c>
       <c r="S30" t="n">
         <v>145.7858681427258</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.48833609201637</v>
+        <v>79.48833609201638</v>
       </c>
       <c r="C31" t="n">
-        <v>65.68833093741685</v>
+        <v>65.68833093741686</v>
       </c>
       <c r="D31" t="n">
-        <v>49.30969533499524</v>
+        <v>49.30969533499525</v>
       </c>
       <c r="E31" t="n">
-        <v>48.25744519077469</v>
+        <v>48.2574451907747</v>
       </c>
       <c r="F31" t="n">
-        <v>48.724369518961</v>
+        <v>48.72436951896101</v>
       </c>
       <c r="G31" t="n">
-        <v>64.75147754526344</v>
+        <v>64.75147754526346</v>
       </c>
       <c r="H31" t="n">
-        <v>53.34609793795933</v>
+        <v>53.34609793795936</v>
       </c>
       <c r="I31" t="n">
-        <v>33.08368730955451</v>
+        <v>33.08368730955452</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>127.5577801408553</v>
       </c>
       <c r="U31" t="n">
-        <v>182.0733530450871</v>
+        <v>182.0733530450872</v>
       </c>
       <c r="V31" t="n">
         <v>155.896472491642</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>287.8716252173193</v>
+        <v>287.8716252173194</v>
       </c>
       <c r="C32" t="n">
         <v>275.8829421750011</v>
       </c>
       <c r="D32" t="n">
-        <v>266.864246219529</v>
+        <v>266.8642462195291</v>
       </c>
       <c r="E32" t="n">
-        <v>288.6063837894345</v>
+        <v>288.6063837894346</v>
       </c>
       <c r="F32" t="n">
-        <v>307.7781998774117</v>
+        <v>307.7781998774118</v>
       </c>
       <c r="G32" t="n">
-        <v>309.1594978745046</v>
+        <v>309.1594978745047</v>
       </c>
       <c r="H32" t="n">
-        <v>221.6087210113936</v>
+        <v>221.6087210113937</v>
       </c>
       <c r="I32" t="n">
-        <v>47.57772831531523</v>
+        <v>47.57772831531527</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.54719260666906</v>
+        <v>70.54719260666913</v>
       </c>
       <c r="T32" t="n">
-        <v>117.4676296620864</v>
+        <v>117.4676296620865</v>
       </c>
       <c r="U32" t="n">
         <v>150.0608464255999</v>
       </c>
       <c r="V32" t="n">
-        <v>231.3780024574984</v>
+        <v>231.3780024574985</v>
       </c>
       <c r="W32" t="n">
-        <v>256.6781019354553</v>
+        <v>256.6781019354554</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9783601682019</v>
+        <v>275.978360168202</v>
       </c>
       <c r="Y32" t="n">
-        <v>287.3749579644007</v>
+        <v>287.3749579644008</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>127.1458850439559</v>
       </c>
       <c r="H33" t="n">
-        <v>96.08621347328979</v>
+        <v>96.08621347328977</v>
       </c>
       <c r="I33" t="n">
         <v>57.53030467618051</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>40.85006423600236</v>
+        <v>40.85006423600235</v>
       </c>
       <c r="S33" t="n">
         <v>145.7858681427258</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.48833609201637</v>
+        <v>79.48833609201644</v>
       </c>
       <c r="C34" t="n">
-        <v>65.68833093741685</v>
+        <v>65.68833093741692</v>
       </c>
       <c r="D34" t="n">
-        <v>49.30969533499524</v>
+        <v>49.30969533499531</v>
       </c>
       <c r="E34" t="n">
-        <v>48.25744519077469</v>
+        <v>48.25744519077476</v>
       </c>
       <c r="F34" t="n">
-        <v>48.724369518961</v>
+        <v>48.72436951896107</v>
       </c>
       <c r="G34" t="n">
-        <v>64.75147754526344</v>
+        <v>64.75147754526351</v>
       </c>
       <c r="H34" t="n">
-        <v>53.34609793795933</v>
+        <v>53.3460979379594</v>
       </c>
       <c r="I34" t="n">
-        <v>33.08368730955451</v>
+        <v>33.08368730955457</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66232683265956</v>
+        <v>34.66232683265962</v>
       </c>
       <c r="S34" t="n">
-        <v>105.0262857884477</v>
+        <v>105.0262857884478</v>
       </c>
       <c r="T34" t="n">
         <v>127.5577801408553</v>
       </c>
       <c r="U34" t="n">
-        <v>182.0733530450872</v>
+        <v>182.0733530450873</v>
       </c>
       <c r="V34" t="n">
         <v>155.896472491642</v>
       </c>
       <c r="W34" t="n">
-        <v>181.0633585622552</v>
+        <v>181.0633585622553</v>
       </c>
       <c r="X34" t="n">
-        <v>126.7084605580583</v>
+        <v>126.7084605580584</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.583328314126</v>
+        <v>117.5833283141261</v>
       </c>
     </row>
     <row r="35">
@@ -3360,10 +3360,10 @@
         <v>127.1458850439559</v>
       </c>
       <c r="H36" t="n">
-        <v>96.08621347328979</v>
+        <v>96.08621347328977</v>
       </c>
       <c r="I36" t="n">
-        <v>57.53030467618051</v>
+        <v>57.5303046761805</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>40.85006423600236</v>
+        <v>40.85006423600235</v>
       </c>
       <c r="S36" t="n">
         <v>145.7858681427258</v>
@@ -3439,7 +3439,7 @@
         <v>15.48926546793584</v>
       </c>
       <c r="H37" t="n">
-        <v>4.083885860631726</v>
+        <v>4.083885860631725</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>12.48732065732553</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>55.76407371112012</v>
+        <v>68.25139436844592</v>
       </c>
       <c r="T37" t="n">
         <v>78.29556806352765</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>238.6094131399917</v>
+        <v>238.6094131399918</v>
       </c>
       <c r="C38" t="n">
         <v>226.6207300976735</v>
       </c>
       <c r="D38" t="n">
-        <v>217.6020341422014</v>
+        <v>217.6020341422015</v>
       </c>
       <c r="E38" t="n">
         <v>239.344171712107</v>
       </c>
       <c r="F38" t="n">
-        <v>258.5159878000841</v>
+        <v>258.5159878000842</v>
       </c>
       <c r="G38" t="n">
         <v>259.8972857971771</v>
       </c>
       <c r="H38" t="n">
-        <v>172.346508934066</v>
+        <v>172.3465089340661</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>21.28498052934148</v>
+        <v>21.28498052934154</v>
       </c>
       <c r="T38" t="n">
-        <v>68.20541758475886</v>
+        <v>68.20541758475892</v>
       </c>
       <c r="U38" t="n">
         <v>100.7986343482723</v>
       </c>
       <c r="V38" t="n">
-        <v>182.1157903801708</v>
+        <v>182.1157903801709</v>
       </c>
       <c r="W38" t="n">
-        <v>207.4158898581277</v>
+        <v>207.4158898581278</v>
       </c>
       <c r="X38" t="n">
         <v>226.7161480908744</v>
       </c>
       <c r="Y38" t="n">
-        <v>238.1127458870731</v>
+        <v>238.1127458870732</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>127.1458850439559</v>
       </c>
       <c r="H39" t="n">
-        <v>96.08621347328979</v>
+        <v>96.08621347328977</v>
       </c>
       <c r="I39" t="n">
-        <v>57.53030467618051</v>
+        <v>57.5303046761805</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>40.85006423600236</v>
+        <v>40.85006423600235</v>
       </c>
       <c r="S39" t="n">
         <v>145.7858681427258</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.22612401468879</v>
+        <v>30.22612401468885</v>
       </c>
       <c r="C40" t="n">
-        <v>16.42611886008928</v>
+        <v>16.42611886008933</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0474832576676647</v>
+        <v>0.04748325766772155</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,16 +3673,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>15.48926546793587</v>
+        <v>15.48926546793593</v>
       </c>
       <c r="H40" t="n">
-        <v>4.083885860631755</v>
+        <v>4.08388586063181</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.48732065732523</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>55.76407371112015</v>
+        <v>55.7640737111202</v>
       </c>
       <c r="T40" t="n">
-        <v>78.29556806352768</v>
+        <v>90.78288872085254</v>
       </c>
       <c r="U40" t="n">
-        <v>132.8111409677596</v>
+        <v>132.8111409677597</v>
       </c>
       <c r="V40" t="n">
         <v>106.6342604143144</v>
       </c>
       <c r="W40" t="n">
-        <v>131.8011464849276</v>
+        <v>131.8011464849277</v>
       </c>
       <c r="X40" t="n">
-        <v>77.44624848073076</v>
+        <v>77.44624848073082</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.32111623679845</v>
+        <v>68.3211162367985</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>21.28498052934142</v>
+        <v>21.28498052934145</v>
       </c>
       <c r="T41" t="n">
-        <v>68.20541758475881</v>
+        <v>68.20541758475883</v>
       </c>
       <c r="U41" t="n">
-        <v>100.7986343482722</v>
+        <v>100.7986343482723</v>
       </c>
       <c r="V41" t="n">
         <v>182.1157903801708</v>
@@ -3834,10 +3834,10 @@
         <v>127.1458850439559</v>
       </c>
       <c r="H42" t="n">
-        <v>96.08621347328979</v>
+        <v>96.08621347328977</v>
       </c>
       <c r="I42" t="n">
-        <v>57.53030467618051</v>
+        <v>57.5303046761805</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>40.85006423600236</v>
+        <v>40.85006423600235</v>
       </c>
       <c r="S42" t="n">
         <v>145.7858681427258</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.22612401468874</v>
+        <v>30.22612401468876</v>
       </c>
       <c r="C43" t="n">
-        <v>16.42611886008922</v>
+        <v>16.42611886008925</v>
       </c>
       <c r="D43" t="n">
-        <v>0.04748325766760786</v>
+        <v>0.04748325766763628</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>15.48926546793581</v>
+        <v>15.48926546793584</v>
       </c>
       <c r="H43" t="n">
-        <v>4.083885860631698</v>
+        <v>4.083885860631725</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.76407371112009</v>
+        <v>68.25139436844592</v>
       </c>
       <c r="T43" t="n">
-        <v>78.29556806352763</v>
+        <v>78.29556806352765</v>
       </c>
       <c r="U43" t="n">
-        <v>132.8111409677595</v>
+        <v>132.8111409677596</v>
       </c>
       <c r="V43" t="n">
-        <v>106.6342604143143</v>
+        <v>106.6342604143144</v>
       </c>
       <c r="W43" t="n">
-        <v>144.2884671422536</v>
+        <v>131.8011464849276</v>
       </c>
       <c r="X43" t="n">
-        <v>77.4462484807307</v>
+        <v>77.44624848073073</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.32111623679839</v>
+        <v>68.32111623679842</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>238.6094131399917</v>
+        <v>238.6094131399918</v>
       </c>
       <c r="C44" t="n">
-        <v>226.6207300976734</v>
+        <v>226.6207300976735</v>
       </c>
       <c r="D44" t="n">
-        <v>217.6020341422014</v>
+        <v>217.6020341422015</v>
       </c>
       <c r="E44" t="n">
-        <v>239.3441717121069</v>
+        <v>239.344171712107</v>
       </c>
       <c r="F44" t="n">
-        <v>258.5159878000841</v>
+        <v>258.5159878000842</v>
       </c>
       <c r="G44" t="n">
-        <v>259.897285797177</v>
+        <v>259.8972857971771</v>
       </c>
       <c r="H44" t="n">
-        <v>172.346508934066</v>
+        <v>172.3465089340661</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>21.28498052934142</v>
+        <v>21.28498052934153</v>
       </c>
       <c r="T44" t="n">
-        <v>68.20541758475881</v>
+        <v>68.20541758475892</v>
       </c>
       <c r="U44" t="n">
-        <v>100.7986343482722</v>
+        <v>100.7986343482723</v>
       </c>
       <c r="V44" t="n">
-        <v>182.1157903801708</v>
+        <v>182.1157903801709</v>
       </c>
       <c r="W44" t="n">
-        <v>207.4158898581277</v>
+        <v>207.4158898581278</v>
       </c>
       <c r="X44" t="n">
-        <v>226.7161480908743</v>
+        <v>226.7161480908744</v>
       </c>
       <c r="Y44" t="n">
-        <v>238.1127458870731</v>
+        <v>238.1127458870732</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>127.1458850439559</v>
       </c>
       <c r="H45" t="n">
-        <v>96.08621347328979</v>
+        <v>96.08621347328977</v>
       </c>
       <c r="I45" t="n">
-        <v>57.53030467618051</v>
+        <v>57.5303046761805</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>40.85006423600236</v>
+        <v>40.85006423600235</v>
       </c>
       <c r="S45" t="n">
         <v>145.7858681427258</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.22612401468874</v>
+        <v>30.22612401468885</v>
       </c>
       <c r="C46" t="n">
-        <v>16.42611886008922</v>
+        <v>16.42611886008933</v>
       </c>
       <c r="D46" t="n">
-        <v>0.04748325766760786</v>
+        <v>0.04748325766772155</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>12.4873206573249</v>
       </c>
       <c r="G46" t="n">
-        <v>15.48926546793581</v>
+        <v>15.48926546793593</v>
       </c>
       <c r="H46" t="n">
-        <v>16.5712065179578</v>
+        <v>4.08388586063181</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.76407371112009</v>
+        <v>55.7640737111202</v>
       </c>
       <c r="T46" t="n">
-        <v>78.29556806352763</v>
+        <v>78.29556806352774</v>
       </c>
       <c r="U46" t="n">
-        <v>132.8111409677595</v>
+        <v>132.8111409677597</v>
       </c>
       <c r="V46" t="n">
-        <v>106.6342604143143</v>
+        <v>106.6342604143144</v>
       </c>
       <c r="W46" t="n">
-        <v>131.8011464849276</v>
+        <v>131.8011464849277</v>
       </c>
       <c r="X46" t="n">
-        <v>77.4462484807307</v>
+        <v>77.44624848073082</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.32111623679839</v>
+        <v>68.3211162367985</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>948.9594658492538</v>
+        <v>476.7444043524662</v>
       </c>
       <c r="C11" t="n">
-        <v>670.2898272886466</v>
+        <v>476.7444043524662</v>
       </c>
       <c r="D11" t="n">
-        <v>400.7299826224557</v>
+        <v>476.7444043524662</v>
       </c>
       <c r="E11" t="n">
-        <v>400.7299826224557</v>
+        <v>476.7444043524662</v>
       </c>
       <c r="F11" t="n">
-        <v>400.7299826224557</v>
+        <v>476.7444043524662</v>
       </c>
       <c r="G11" t="n">
-        <v>88.44766153709762</v>
+        <v>164.462083267108</v>
       </c>
       <c r="H11" t="n">
-        <v>88.44766153709762</v>
+        <v>88.44766153709767</v>
       </c>
       <c r="I11" t="n">
-        <v>40.3893501074863</v>
+        <v>40.38935010748633</v>
       </c>
       <c r="J11" t="n">
-        <v>158.7671721551107</v>
+        <v>40.38935010748633</v>
       </c>
       <c r="K11" t="n">
-        <v>158.7671721551107</v>
+        <v>40.38935010748633</v>
       </c>
       <c r="L11" t="n">
-        <v>592.8864853858584</v>
+        <v>474.508663338234</v>
       </c>
       <c r="M11" t="n">
-        <v>686.3765289723492</v>
+        <v>963.6997035049601</v>
       </c>
       <c r="N11" t="n">
-        <v>1162.212363208221</v>
+        <v>1439.535537740832</v>
       </c>
       <c r="O11" t="n">
-        <v>1559.287659039773</v>
+        <v>1559.287659039775</v>
       </c>
       <c r="P11" t="n">
-        <v>1866.024777509301</v>
+        <v>1866.024777509303</v>
       </c>
       <c r="Q11" t="n">
-        <v>2019.467505374315</v>
+        <v>2019.467505374316</v>
       </c>
       <c r="R11" t="n">
-        <v>2019.467505374315</v>
+        <v>2019.467505374316</v>
       </c>
       <c r="S11" t="n">
-        <v>1948.207714862528</v>
+        <v>1948.207714862529</v>
       </c>
       <c r="T11" t="n">
-        <v>1829.553543486683</v>
+        <v>1829.553543486685</v>
       </c>
       <c r="U11" t="n">
-        <v>1677.976930935572</v>
+        <v>1829.553543486685</v>
       </c>
       <c r="V11" t="n">
-        <v>1677.976930935572</v>
+        <v>1595.838389489212</v>
       </c>
       <c r="W11" t="n">
-        <v>1677.976930935572</v>
+        <v>1336.567579453398</v>
       </c>
       <c r="X11" t="n">
-        <v>1399.210910563651</v>
+        <v>1057.801559081477</v>
       </c>
       <c r="Y11" t="n">
-        <v>1239.738885260687</v>
+        <v>767.5238237639003</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>906.2518549336409</v>
+        <v>544.5554145694897</v>
       </c>
       <c r="C12" t="n">
-        <v>744.5481821745956</v>
+        <v>382.8517418104444</v>
       </c>
       <c r="D12" t="n">
-        <v>605.7095451648077</v>
+        <v>244.0131048006565</v>
       </c>
       <c r="E12" t="n">
-        <v>458.6815352216788</v>
+        <v>96.98509485752771</v>
       </c>
       <c r="F12" t="n">
-        <v>323.9877371715531</v>
+        <v>65.55541691398756</v>
       </c>
       <c r="G12" t="n">
-        <v>195.5575502584664</v>
+        <v>40.38935010748633</v>
       </c>
       <c r="H12" t="n">
-        <v>98.5007689723151</v>
+        <v>40.38935010748633</v>
       </c>
       <c r="I12" t="n">
-        <v>40.3893501074863</v>
+        <v>40.38935010748633</v>
       </c>
       <c r="J12" t="n">
-        <v>40.3893501074863</v>
+        <v>128.2666767534136</v>
       </c>
       <c r="K12" t="n">
-        <v>317.0923172358814</v>
+        <v>404.9696438818087</v>
       </c>
       <c r="L12" t="n">
-        <v>746.3970801667886</v>
+        <v>699.9584754418493</v>
       </c>
       <c r="M12" t="n">
-        <v>1004.683432420114</v>
+        <v>699.9584754418493</v>
       </c>
       <c r="N12" t="n">
-        <v>1004.683432420114</v>
+        <v>1199.776683021993</v>
       </c>
       <c r="O12" t="n">
-        <v>1466.447222003774</v>
+        <v>1661.540472605652</v>
       </c>
       <c r="P12" t="n">
-        <v>1824.374254772438</v>
+        <v>2019.467505374316</v>
       </c>
       <c r="Q12" t="n">
-        <v>2019.467505374315</v>
+        <v>2019.467505374316</v>
       </c>
       <c r="R12" t="n">
-        <v>1978.204814226838</v>
+        <v>1978.204814226839</v>
       </c>
       <c r="S12" t="n">
-        <v>1830.946361557418</v>
+        <v>1866.818402422479</v>
       </c>
       <c r="T12" t="n">
-        <v>1731.239789621783</v>
+        <v>1782.599829683974</v>
       </c>
       <c r="U12" t="n">
-        <v>1616.028743186127</v>
+        <v>1564.124663141733</v>
       </c>
       <c r="V12" t="n">
-        <v>1490.897240741047</v>
+        <v>1335.729040590067</v>
       </c>
       <c r="W12" t="n">
-        <v>1249.581371974357</v>
+        <v>1094.413171823377</v>
       </c>
       <c r="X12" t="n">
-        <v>1154.928503958737</v>
+        <v>896.4961837011718</v>
       </c>
       <c r="Y12" t="n">
-        <v>1065.671297714902</v>
+        <v>703.9748573507507</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>407.2187478599357</v>
+        <v>407.2187478599367</v>
       </c>
       <c r="C13" t="n">
-        <v>340.8668984282016</v>
+        <v>340.8668984282025</v>
       </c>
       <c r="D13" t="n">
-        <v>291.0591253625498</v>
+        <v>291.0591253625508</v>
       </c>
       <c r="E13" t="n">
-        <v>242.3142312304541</v>
+        <v>242.3142312304551</v>
       </c>
       <c r="F13" t="n">
-        <v>193.0976963628168</v>
+        <v>193.0976963628177</v>
       </c>
       <c r="G13" t="n">
-        <v>127.6921634888134</v>
+        <v>127.6921634888143</v>
       </c>
       <c r="H13" t="n">
-        <v>73.80721607673327</v>
+        <v>73.80721607673428</v>
       </c>
       <c r="I13" t="n">
-        <v>40.3893501074863</v>
+        <v>40.38935010748633</v>
       </c>
       <c r="J13" t="n">
-        <v>100.0663101762935</v>
+        <v>100.0663101762934</v>
       </c>
       <c r="K13" t="n">
         <v>263.3580038615221</v>
@@ -5209,7 +5209,7 @@
         <v>759.2428683472721</v>
       </c>
       <c r="N13" t="n">
-        <v>1016.384227728629</v>
+        <v>1016.384227728628</v>
       </c>
       <c r="O13" t="n">
         <v>1250.703459207874</v>
@@ -5227,22 +5227,22 @@
         <v>1387.391565237755</v>
       </c>
       <c r="T13" t="n">
-        <v>1258.545322671235</v>
+        <v>1258.545322671234</v>
       </c>
       <c r="U13" t="n">
         <v>1074.632844847914</v>
       </c>
       <c r="V13" t="n">
-        <v>917.1616605129223</v>
+        <v>917.1616605129226</v>
       </c>
       <c r="W13" t="n">
-        <v>734.269379136907</v>
+        <v>734.2693791369072</v>
       </c>
       <c r="X13" t="n">
-        <v>606.2810351388673</v>
+        <v>606.2810351388684</v>
       </c>
       <c r="Y13" t="n">
-        <v>487.5099964377299</v>
+        <v>487.509996437731</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1307.317475222082</v>
+        <v>971.4871894361986</v>
       </c>
       <c r="C14" t="n">
-        <v>1028.647836661474</v>
+        <v>971.4871894361986</v>
       </c>
       <c r="D14" t="n">
-        <v>759.0879919952836</v>
+        <v>701.9273447700077</v>
       </c>
       <c r="E14" t="n">
-        <v>467.566392207976</v>
+        <v>410.4057449827001</v>
       </c>
       <c r="F14" t="n">
-        <v>320.5469393506467</v>
+        <v>410.4057449827001</v>
       </c>
       <c r="G14" t="n">
         <v>320.5469393506467</v>
       </c>
       <c r="H14" t="n">
-        <v>96.69974640984505</v>
+        <v>96.69974640984506</v>
       </c>
       <c r="I14" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="J14" t="n">
-        <v>167.0192570278582</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="K14" t="n">
-        <v>476.6701438696024</v>
+        <v>358.2923218219779</v>
       </c>
       <c r="L14" t="n">
-        <v>910.7894571003501</v>
+        <v>792.4116350527255</v>
       </c>
       <c r="M14" t="n">
-        <v>1098.980772609722</v>
+        <v>1098.980772609721</v>
       </c>
       <c r="N14" t="n">
-        <v>1574.816606845594</v>
+        <v>1574.816606845593</v>
       </c>
       <c r="O14" t="n">
-        <v>1971.891902677146</v>
+        <v>1971.891902677145</v>
       </c>
       <c r="P14" t="n">
-        <v>2278.629021146674</v>
+        <v>2278.629021146673</v>
       </c>
       <c r="Q14" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="R14" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.8119584999</v>
+        <v>2360.811958499899</v>
       </c>
       <c r="T14" t="n">
-        <v>2242.157787124056</v>
+        <v>2242.157787124055</v>
       </c>
       <c r="U14" t="n">
-        <v>2090.581174572945</v>
+        <v>2090.581174572944</v>
       </c>
       <c r="V14" t="n">
-        <v>1856.866020575472</v>
+        <v>2090.581174572944</v>
       </c>
       <c r="W14" t="n">
-        <v>1597.595210539658</v>
+        <v>1831.31036453713</v>
       </c>
       <c r="X14" t="n">
-        <v>1597.595210539658</v>
+        <v>1552.544344165209</v>
       </c>
       <c r="Y14" t="n">
-        <v>1307.317475222082</v>
+        <v>1262.266608847633</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>914.5039398063883</v>
+        <v>818.0234972352146</v>
       </c>
       <c r="C15" t="n">
-        <v>752.800267047343</v>
+        <v>656.3198244761693</v>
       </c>
       <c r="D15" t="n">
-        <v>613.9616300375551</v>
+        <v>517.4811874663814</v>
       </c>
       <c r="E15" t="n">
-        <v>466.9336200944263</v>
+        <v>370.4531775232526</v>
       </c>
       <c r="F15" t="n">
-        <v>332.2398220443006</v>
+        <v>235.7593794731269</v>
       </c>
       <c r="G15" t="n">
-        <v>203.8096351312138</v>
+        <v>107.3291925600402</v>
       </c>
       <c r="H15" t="n">
         <v>106.7528538450625</v>
       </c>
       <c r="I15" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="J15" t="n">
         <v>136.518761626161</v>
@@ -5367,40 +5367,40 @@
         <v>1401.641415926746</v>
       </c>
       <c r="N15" t="n">
-        <v>1417.287676057486</v>
+        <v>1417.287676057485</v>
       </c>
       <c r="O15" t="n">
-        <v>1879.051465641146</v>
+        <v>1879.051465641145</v>
       </c>
       <c r="P15" t="n">
-        <v>2236.97849840981</v>
+        <v>2236.978498409809</v>
       </c>
       <c r="Q15" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="R15" t="n">
-        <v>2390.80905786421</v>
+        <v>2390.809057864209</v>
       </c>
       <c r="S15" t="n">
-        <v>2243.55060519479</v>
+        <v>2243.550605194789</v>
       </c>
       <c r="T15" t="n">
-        <v>2152.548354920872</v>
+        <v>2056.067912349699</v>
       </c>
       <c r="U15" t="n">
-        <v>1934.073188378632</v>
+        <v>1837.592745807458</v>
       </c>
       <c r="V15" t="n">
-        <v>1705.677565826966</v>
+        <v>1609.197123255792</v>
       </c>
       <c r="W15" t="n">
-        <v>1464.361697060276</v>
+        <v>1367.881254489102</v>
       </c>
       <c r="X15" t="n">
-        <v>1266.44470893807</v>
+        <v>1169.964266366897</v>
       </c>
       <c r="Y15" t="n">
-        <v>1073.923382587649</v>
+        <v>977.4429400164755</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.4708327326832</v>
+        <v>415.4708327326833</v>
       </c>
       <c r="C16" t="n">
-        <v>349.118983300949</v>
+        <v>349.1189833009491</v>
       </c>
       <c r="D16" t="n">
-        <v>299.3112102352973</v>
+        <v>299.3112102352974</v>
       </c>
       <c r="E16" t="n">
-        <v>250.5663161032016</v>
+        <v>250.5663161032018</v>
       </c>
       <c r="F16" t="n">
-        <v>201.3497812355643</v>
+        <v>201.3497812355644</v>
       </c>
       <c r="G16" t="n">
-        <v>135.9442483615608</v>
+        <v>135.9442483615609</v>
       </c>
       <c r="H16" t="n">
-        <v>82.05930094948071</v>
+        <v>82.0593009494807</v>
       </c>
       <c r="I16" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="J16" t="n">
-        <v>108.3183950490403</v>
+        <v>108.3183950490409</v>
       </c>
       <c r="K16" t="n">
-        <v>271.6100887342689</v>
+        <v>271.6100887342694</v>
       </c>
       <c r="L16" t="n">
-        <v>509.8688050359436</v>
+        <v>509.8688050359441</v>
       </c>
       <c r="M16" t="n">
-        <v>767.4949532200188</v>
+        <v>767.4949532200193</v>
       </c>
       <c r="N16" t="n">
-        <v>1024.636312601375</v>
+        <v>1024.636312601376</v>
       </c>
       <c r="O16" t="n">
         <v>1258.955544080621</v>
@@ -5464,22 +5464,22 @@
         <v>1395.643650110502</v>
       </c>
       <c r="T16" t="n">
-        <v>1266.797407543981</v>
+        <v>1266.797407543982</v>
       </c>
       <c r="U16" t="n">
         <v>1082.884929720661</v>
       </c>
       <c r="V16" t="n">
-        <v>925.4137453856688</v>
+        <v>925.4137453856692</v>
       </c>
       <c r="W16" t="n">
-        <v>742.5214640096535</v>
+        <v>742.5214640096539</v>
       </c>
       <c r="X16" t="n">
-        <v>614.5331200116149</v>
+        <v>614.533120011615</v>
       </c>
       <c r="Y16" t="n">
-        <v>495.7620813104775</v>
+        <v>495.7620813104776</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1307.850359533022</v>
+        <v>1307.850359533021</v>
       </c>
       <c r="C17" t="n">
         <v>1100.440511484201</v>
       </c>
       <c r="D17" t="n">
-        <v>902.1404573297974</v>
+        <v>902.1404573297971</v>
       </c>
       <c r="E17" t="n">
-        <v>681.8786480542767</v>
+        <v>681.8786480542765</v>
       </c>
       <c r="F17" t="n">
         <v>442.2513679828194</v>
       </c>
       <c r="G17" t="n">
-        <v>201.2288374092485</v>
+        <v>201.2288374092483</v>
       </c>
       <c r="H17" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="I17" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="J17" t="n">
-        <v>167.0192570278582</v>
+        <v>167.0192570278581</v>
       </c>
       <c r="K17" t="n">
-        <v>476.6701438696024</v>
+        <v>476.6701438696023</v>
       </c>
       <c r="L17" t="n">
-        <v>910.7894571003501</v>
+        <v>910.78945710035</v>
       </c>
       <c r="M17" t="n">
-        <v>1098.980772609722</v>
+        <v>1252.423500474734</v>
       </c>
       <c r="N17" t="n">
-        <v>1574.816606845594</v>
+        <v>1728.259334710606</v>
       </c>
       <c r="O17" t="n">
-        <v>1971.891902677146</v>
+        <v>2125.334630542158</v>
       </c>
       <c r="P17" t="n">
-        <v>2278.629021146674</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="Q17" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="R17" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="S17" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="T17" t="n">
-        <v>2384.677368147629</v>
+        <v>2384.677368147628</v>
       </c>
       <c r="U17" t="n">
-        <v>2304.360546108305</v>
+        <v>2304.360546108303</v>
       </c>
       <c r="V17" t="n">
-        <v>2141.905182622619</v>
+        <v>2141.905182622617</v>
       </c>
       <c r="W17" t="n">
-        <v>1953.894163098592</v>
+        <v>1953.894163098591</v>
       </c>
       <c r="X17" t="n">
-        <v>1746.387933238458</v>
+        <v>1746.387933238457</v>
       </c>
       <c r="Y17" t="n">
-        <v>1527.369988432668</v>
+        <v>1527.369988432667</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>106.7528538450625</v>
       </c>
       <c r="I18" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="J18" t="n">
         <v>136.518761626161</v>
@@ -5604,22 +5604,22 @@
         <v>1401.641415926746</v>
       </c>
       <c r="N18" t="n">
-        <v>1417.287676057486</v>
+        <v>1417.287676057485</v>
       </c>
       <c r="O18" t="n">
-        <v>1879.051465641146</v>
+        <v>1879.051465641145</v>
       </c>
       <c r="P18" t="n">
-        <v>2236.97849840981</v>
+        <v>2236.978498409809</v>
       </c>
       <c r="Q18" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="R18" t="n">
-        <v>2390.80905786421</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="S18" t="n">
-        <v>2243.55060519479</v>
+        <v>2340.031047765963</v>
       </c>
       <c r="T18" t="n">
         <v>2152.548354920872</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>252.0703539946673</v>
+        <v>95.1416842996214</v>
       </c>
       <c r="C19" t="n">
-        <v>252.0703539946673</v>
+        <v>95.1416842996214</v>
       </c>
       <c r="D19" t="n">
-        <v>252.0703539946673</v>
+        <v>95.1416842996214</v>
       </c>
       <c r="E19" t="n">
-        <v>252.0703539946673</v>
+        <v>95.1416842996214</v>
       </c>
       <c r="F19" t="n">
-        <v>252.0703539946673</v>
+        <v>95.1416842996214</v>
       </c>
       <c r="G19" t="n">
-        <v>252.0703539946673</v>
+        <v>95.1416842996214</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3234210560663</v>
+        <v>95.1416842996214</v>
       </c>
       <c r="I19" t="n">
-        <v>48.64143498023375</v>
+        <v>91.01691100069829</v>
       </c>
       <c r="J19" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="K19" t="n">
         <v>110.7239645489979</v>
@@ -5692,31 +5692,31 @@
         <v>785.8472455635845</v>
       </c>
       <c r="Q19" t="n">
-        <v>768.2520046402587</v>
+        <v>785.8472455635845</v>
       </c>
       <c r="R19" t="n">
-        <v>768.2520046402587</v>
+        <v>785.8472455635845</v>
       </c>
       <c r="S19" t="n">
-        <v>733.4246377899773</v>
+        <v>751.0198787133031</v>
       </c>
       <c r="T19" t="n">
-        <v>675.8381857352438</v>
+        <v>693.4334266585697</v>
       </c>
       <c r="U19" t="n">
-        <v>563.1854984237103</v>
+        <v>580.7807393470364</v>
       </c>
       <c r="V19" t="n">
-        <v>476.9741046005054</v>
+        <v>494.5693455238315</v>
       </c>
       <c r="W19" t="n">
-        <v>365.3416137362769</v>
+        <v>382.9368546596032</v>
       </c>
       <c r="X19" t="n">
-        <v>308.6130602500251</v>
+        <v>326.2083011733516</v>
       </c>
       <c r="Y19" t="n">
-        <v>261.1018120606747</v>
+        <v>104.1731423656286</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1307.850359533023</v>
+        <v>1307.850359533022</v>
       </c>
       <c r="C20" t="n">
-        <v>1100.440511484202</v>
+        <v>1100.440511484201</v>
       </c>
       <c r="D20" t="n">
-        <v>902.1404573297986</v>
+        <v>902.1404573297973</v>
       </c>
       <c r="E20" t="n">
-        <v>681.8786480542778</v>
+        <v>681.8786480542766</v>
       </c>
       <c r="F20" t="n">
-        <v>442.2513679828206</v>
+        <v>442.2513679828194</v>
       </c>
       <c r="G20" t="n">
         <v>201.2288374092484</v>
       </c>
       <c r="H20" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="I20" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="J20" t="n">
-        <v>167.0192570278582</v>
+        <v>167.0192570278581</v>
       </c>
       <c r="K20" t="n">
-        <v>476.6701438696024</v>
+        <v>476.6701438696023</v>
       </c>
       <c r="L20" t="n">
-        <v>910.7894571003501</v>
+        <v>910.78945710035</v>
       </c>
       <c r="M20" t="n">
-        <v>1098.980772609722</v>
+        <v>1098.980772609721</v>
       </c>
       <c r="N20" t="n">
-        <v>1574.816606845594</v>
+        <v>1574.816606845593</v>
       </c>
       <c r="O20" t="n">
-        <v>1971.891902677146</v>
+        <v>1971.891902677145</v>
       </c>
       <c r="P20" t="n">
-        <v>2278.629021146674</v>
+        <v>2278.629021146673</v>
       </c>
       <c r="Q20" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="R20" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="S20" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="T20" t="n">
-        <v>2384.677368147629</v>
+        <v>2384.677368147628</v>
       </c>
       <c r="U20" t="n">
-        <v>2304.360546108306</v>
+        <v>2304.360546108305</v>
       </c>
       <c r="V20" t="n">
-        <v>2141.90518262262</v>
+        <v>2141.905182622619</v>
       </c>
       <c r="W20" t="n">
-        <v>1953.894163098593</v>
+        <v>1953.894163098592</v>
       </c>
       <c r="X20" t="n">
-        <v>1746.387933238459</v>
+        <v>1746.387933238458</v>
       </c>
       <c r="Y20" t="n">
-        <v>1527.369988432669</v>
+        <v>1527.369988432668</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>859.2861883826927</v>
+        <v>818.0234972352146</v>
       </c>
       <c r="C21" t="n">
-        <v>697.5825156236474</v>
+        <v>656.3198244761693</v>
       </c>
       <c r="D21" t="n">
-        <v>558.7438786138595</v>
+        <v>517.4811874663814</v>
       </c>
       <c r="E21" t="n">
-        <v>411.7158686707307</v>
+        <v>370.4531775232526</v>
       </c>
       <c r="F21" t="n">
-        <v>277.0220706206051</v>
+        <v>235.7593794731269</v>
       </c>
       <c r="G21" t="n">
-        <v>148.5918837075183</v>
+        <v>107.3291925600402</v>
       </c>
       <c r="H21" t="n">
-        <v>51.53510242136701</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="I21" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="J21" t="n">
         <v>136.518761626161</v>
@@ -5841,40 +5841,40 @@
         <v>1401.641415926746</v>
       </c>
       <c r="N21" t="n">
-        <v>1417.287676057486</v>
+        <v>1417.287676057485</v>
       </c>
       <c r="O21" t="n">
-        <v>1879.051465641146</v>
+        <v>1879.051465641145</v>
       </c>
       <c r="P21" t="n">
-        <v>2236.97849840981</v>
+        <v>2236.978498409809</v>
       </c>
       <c r="Q21" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="R21" t="n">
-        <v>2432.071749011687</v>
+        <v>2390.809057864209</v>
       </c>
       <c r="S21" t="n">
-        <v>2284.813296342267</v>
+        <v>2243.550605194789</v>
       </c>
       <c r="T21" t="n">
-        <v>2097.330603497177</v>
+        <v>2056.067912349699</v>
       </c>
       <c r="U21" t="n">
-        <v>1878.855436954936</v>
+        <v>1837.592745807458</v>
       </c>
       <c r="V21" t="n">
-        <v>1650.45981440327</v>
+        <v>1609.197123255792</v>
       </c>
       <c r="W21" t="n">
-        <v>1409.14394563658</v>
+        <v>1367.881254489102</v>
       </c>
       <c r="X21" t="n">
-        <v>1211.226957514375</v>
+        <v>1169.964266366897</v>
       </c>
       <c r="Y21" t="n">
-        <v>1018.705631163954</v>
+        <v>977.4429400164755</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.64143498023375</v>
+        <v>113.7937825419609</v>
       </c>
       <c r="C22" t="n">
-        <v>48.64143498023375</v>
+        <v>113.7937825419609</v>
       </c>
       <c r="D22" t="n">
-        <v>48.64143498023375</v>
+        <v>113.7937825419609</v>
       </c>
       <c r="E22" t="n">
-        <v>48.64143498023375</v>
+        <v>113.7937825419609</v>
       </c>
       <c r="F22" t="n">
-        <v>48.64143498023375</v>
+        <v>113.7937825419609</v>
       </c>
       <c r="G22" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="H22" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="I22" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="J22" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="K22" t="n">
         <v>110.7239645489979</v>
@@ -5932,28 +5932,28 @@
         <v>768.2520046402587</v>
       </c>
       <c r="R22" t="n">
-        <v>768.2520046402587</v>
+        <v>629.9754331875524</v>
       </c>
       <c r="S22" t="n">
-        <v>733.4246377899773</v>
+        <v>595.148066337271</v>
       </c>
       <c r="T22" t="n">
-        <v>675.8381857352438</v>
+        <v>537.5616142825374</v>
       </c>
       <c r="U22" t="n">
-        <v>563.1854984237103</v>
+        <v>424.908926971004</v>
       </c>
       <c r="V22" t="n">
-        <v>476.9741046005054</v>
+        <v>338.697533147799</v>
       </c>
       <c r="W22" t="n">
-        <v>365.3416137362769</v>
+        <v>227.0650422835706</v>
       </c>
       <c r="X22" t="n">
-        <v>134.0891496316527</v>
+        <v>170.3364887973188</v>
       </c>
       <c r="Y22" t="n">
-        <v>86.57790144230226</v>
+        <v>122.8252406079683</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1307.850359533022</v>
+        <v>1307.850359533023</v>
       </c>
       <c r="C23" t="n">
-        <v>1100.440511484202</v>
+        <v>1100.440511484203</v>
       </c>
       <c r="D23" t="n">
-        <v>902.1404573297975</v>
+        <v>902.1404573297991</v>
       </c>
       <c r="E23" t="n">
-        <v>681.8786480542768</v>
+        <v>681.8786480542784</v>
       </c>
       <c r="F23" t="n">
-        <v>442.2513679828196</v>
+        <v>442.2513679828212</v>
       </c>
       <c r="G23" t="n">
-        <v>201.2288374092484</v>
+        <v>201.2288374092485</v>
       </c>
       <c r="H23" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="I23" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="J23" t="n">
         <v>167.0192570278582</v>
@@ -5996,43 +5996,43 @@
         <v>910.7894571003501</v>
       </c>
       <c r="M23" t="n">
-        <v>1098.980772609722</v>
+        <v>1098.980772609723</v>
       </c>
       <c r="N23" t="n">
-        <v>1574.816606845594</v>
+        <v>1574.816606845595</v>
       </c>
       <c r="O23" t="n">
-        <v>1971.891902677146</v>
+        <v>1971.891902677147</v>
       </c>
       <c r="P23" t="n">
-        <v>2278.629021146674</v>
+        <v>2278.629021146675</v>
       </c>
       <c r="Q23" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011688</v>
       </c>
       <c r="R23" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011688</v>
       </c>
       <c r="S23" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011688</v>
       </c>
       <c r="T23" t="n">
-        <v>2384.677368147629</v>
+        <v>2384.67736814763</v>
       </c>
       <c r="U23" t="n">
-        <v>2304.360546108305</v>
+        <v>2304.360546108307</v>
       </c>
       <c r="V23" t="n">
-        <v>2141.905182622619</v>
+        <v>2141.90518262262</v>
       </c>
       <c r="W23" t="n">
-        <v>1953.894163098592</v>
+        <v>1953.894163098594</v>
       </c>
       <c r="X23" t="n">
-        <v>1746.387933238458</v>
+        <v>1746.38793323846</v>
       </c>
       <c r="Y23" t="n">
-        <v>1527.369988432668</v>
+        <v>1527.36998843267</v>
       </c>
     </row>
     <row r="24">
@@ -6060,37 +6060,37 @@
         <v>203.8096351312138</v>
       </c>
       <c r="H24" t="n">
-        <v>106.7528538450625</v>
+        <v>106.7528538450626</v>
       </c>
       <c r="I24" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="J24" t="n">
-        <v>136.518761626161</v>
+        <v>136.5187616261611</v>
       </c>
       <c r="K24" t="n">
-        <v>413.2217287545561</v>
+        <v>413.2217287545562</v>
       </c>
       <c r="L24" t="n">
-        <v>842.5264916854633</v>
+        <v>842.5264916854634</v>
       </c>
       <c r="M24" t="n">
         <v>1401.641415926746</v>
       </c>
       <c r="N24" t="n">
-        <v>1417.287676057486</v>
+        <v>1417.287676057487</v>
       </c>
       <c r="O24" t="n">
         <v>1879.051465641146</v>
       </c>
       <c r="P24" t="n">
-        <v>2236.97849840981</v>
+        <v>2236.978498409811</v>
       </c>
       <c r="Q24" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011688</v>
       </c>
       <c r="R24" t="n">
-        <v>2390.80905786421</v>
+        <v>2432.071749011688</v>
       </c>
       <c r="S24" t="n">
         <v>2340.031047765963</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>269.6655949179931</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="C25" t="n">
-        <v>269.6655949179931</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="D25" t="n">
-        <v>269.6655949179931</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="E25" t="n">
-        <v>117.6565806793119</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="F25" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="G25" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="H25" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="I25" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="J25" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="K25" t="n">
         <v>110.7239645489979</v>
@@ -6157,40 +6157,40 @@
         <v>404.1905008018189</v>
       </c>
       <c r="N25" t="n">
-        <v>560.1226960667107</v>
+        <v>560.1226960667108</v>
       </c>
       <c r="O25" t="n">
-        <v>693.2327634294919</v>
+        <v>693.232763429492</v>
       </c>
       <c r="P25" t="n">
-        <v>785.8472455635845</v>
+        <v>785.8472455635847</v>
       </c>
       <c r="Q25" t="n">
-        <v>785.8472455635845</v>
+        <v>785.8472455635847</v>
       </c>
       <c r="R25" t="n">
-        <v>785.8472455635845</v>
+        <v>739.3469962441977</v>
       </c>
       <c r="S25" t="n">
-        <v>751.019878713303</v>
+        <v>704.5196293939163</v>
       </c>
       <c r="T25" t="n">
-        <v>693.4334266585695</v>
+        <v>646.9331773391827</v>
       </c>
       <c r="U25" t="n">
-        <v>580.780739347036</v>
+        <v>359.7565794092768</v>
       </c>
       <c r="V25" t="n">
-        <v>494.5693455238311</v>
+        <v>273.5451855860719</v>
       </c>
       <c r="W25" t="n">
-        <v>382.9368546596027</v>
+        <v>161.9126947218434</v>
       </c>
       <c r="X25" t="n">
-        <v>326.2083011733509</v>
+        <v>105.1841412355916</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.6970529840004</v>
+        <v>57.67289304624114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1804.80813604549</v>
+        <v>1804.808136045491</v>
       </c>
       <c r="C26" t="n">
-        <v>1526.138497484882</v>
+        <v>1526.138497484884</v>
       </c>
       <c r="D26" t="n">
-        <v>1256.578652818692</v>
+        <v>1256.578652818693</v>
       </c>
       <c r="E26" t="n">
-        <v>965.0570530313839</v>
+        <v>965.0570530313851</v>
       </c>
       <c r="F26" t="n">
-        <v>654.1699824481395</v>
+        <v>654.1699824481409</v>
       </c>
       <c r="G26" t="n">
-        <v>341.887661362782</v>
+        <v>341.8876613627826</v>
       </c>
       <c r="H26" t="n">
-        <v>118.0404684219803</v>
+        <v>118.0404684219804</v>
       </c>
       <c r="I26" t="n">
-        <v>69.98215699236901</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="J26" t="n">
         <v>289.5691431564579</v>
       </c>
       <c r="K26" t="n">
-        <v>700.4291941146665</v>
+        <v>700.4291941146664</v>
       </c>
       <c r="L26" t="n">
         <v>1235.757671461879</v>
       </c>
       <c r="M26" t="n">
-        <v>1826.157875745069</v>
+        <v>1724.948711628605</v>
       </c>
       <c r="N26" t="n">
-        <v>2392.733847246614</v>
+        <v>2291.524683130152</v>
       </c>
       <c r="O26" t="n">
-        <v>2789.809143078166</v>
+        <v>2789.809143078168</v>
       </c>
       <c r="P26" t="n">
-        <v>3197.755425664159</v>
+        <v>3197.75542566416</v>
       </c>
       <c r="Q26" t="n">
-        <v>3452.407317645637</v>
+        <v>3452.407317645638</v>
       </c>
       <c r="R26" t="n">
-        <v>3499.107849618451</v>
+        <v>3499.107849618452</v>
       </c>
       <c r="S26" t="n">
-        <v>3427.848059106664</v>
+        <v>3427.848059106665</v>
       </c>
       <c r="T26" t="n">
-        <v>3309.193887730819</v>
+        <v>3309.19388773082</v>
       </c>
       <c r="U26" t="n">
         <v>3157.617275179708</v>
       </c>
       <c r="V26" t="n">
-        <v>2923.902121182235</v>
+        <v>2923.902121182236</v>
       </c>
       <c r="W26" t="n">
-        <v>2664.631311146421</v>
+        <v>2664.631311146422</v>
       </c>
       <c r="X26" t="n">
-        <v>2385.8652907745</v>
+        <v>2385.865290774501</v>
       </c>
       <c r="Y26" t="n">
-        <v>2095.587555456923</v>
+        <v>2095.587555456924</v>
       </c>
     </row>
     <row r="27">
@@ -6300,10 +6300,10 @@
         <v>128.0935758571978</v>
       </c>
       <c r="I27" t="n">
-        <v>69.98215699236901</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="J27" t="n">
-        <v>69.98215699236901</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="K27" t="n">
         <v>346.6851241207642</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>436.8115547448185</v>
+        <v>436.8115547448187</v>
       </c>
       <c r="C28" t="n">
-        <v>370.4597053130843</v>
+        <v>370.4597053130845</v>
       </c>
       <c r="D28" t="n">
-        <v>320.6519322474326</v>
+        <v>320.6519322474327</v>
       </c>
       <c r="E28" t="n">
-        <v>271.9070381153369</v>
+        <v>271.9070381153371</v>
       </c>
       <c r="F28" t="n">
-        <v>222.6905032476996</v>
+        <v>222.6905032476997</v>
       </c>
       <c r="G28" t="n">
-        <v>157.2849703736961</v>
+        <v>157.2849703736962</v>
       </c>
       <c r="H28" t="n">
         <v>103.400022961616</v>
       </c>
       <c r="I28" t="n">
-        <v>69.98215699236901</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="J28" t="n">
         <v>129.6591170611762</v>
@@ -6388,7 +6388,7 @@
         <v>292.9508107464048</v>
       </c>
       <c r="L28" t="n">
-        <v>531.2095270480795</v>
+        <v>531.2095270480796</v>
       </c>
       <c r="M28" t="n">
         <v>788.8356752321547</v>
@@ -6400,34 +6400,34 @@
         <v>1280.296266092757</v>
       </c>
       <c r="P28" t="n">
-        <v>1474.119912343313</v>
+        <v>1474.119912343314</v>
       </c>
       <c r="Q28" t="n">
         <v>1558.083980830826</v>
       </c>
       <c r="R28" t="n">
-        <v>1523.071529484705</v>
+        <v>1523.071529484706</v>
       </c>
       <c r="S28" t="n">
         <v>1416.984372122637</v>
       </c>
       <c r="T28" t="n">
-        <v>1288.138129556116</v>
+        <v>1288.138129556117</v>
       </c>
       <c r="U28" t="n">
         <v>1104.225651732796</v>
       </c>
       <c r="V28" t="n">
-        <v>946.7544673978042</v>
+        <v>946.7544673978045</v>
       </c>
       <c r="W28" t="n">
-        <v>763.8621860217888</v>
+        <v>763.8621860217892</v>
       </c>
       <c r="X28" t="n">
-        <v>635.8738420237502</v>
+        <v>635.8738420237504</v>
       </c>
       <c r="Y28" t="n">
-        <v>517.1028033226128</v>
+        <v>517.102803322613</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1804.808136045491</v>
+        <v>1804.80813604549</v>
       </c>
       <c r="C29" t="n">
         <v>1526.138497484883</v>
@@ -6446,46 +6446,46 @@
         <v>1256.578652818692</v>
       </c>
       <c r="E29" t="n">
-        <v>965.0570530313848</v>
+        <v>965.0570530313846</v>
       </c>
       <c r="F29" t="n">
-        <v>654.1699824481407</v>
+        <v>654.1699824481404</v>
       </c>
       <c r="G29" t="n">
-        <v>341.8876613627825</v>
+        <v>341.8876613627822</v>
       </c>
       <c r="H29" t="n">
         <v>118.0404684219804</v>
       </c>
       <c r="I29" t="n">
-        <v>69.98215699236903</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="J29" t="n">
         <v>289.5691431564579</v>
       </c>
       <c r="K29" t="n">
-        <v>700.4291941146665</v>
+        <v>700.4291941146664</v>
       </c>
       <c r="L29" t="n">
-        <v>1235.757671461879</v>
+        <v>1225.288644611088</v>
       </c>
       <c r="M29" t="n">
-        <v>1826.157875745069</v>
+        <v>1714.479684777814</v>
       </c>
       <c r="N29" t="n">
-        <v>2301.993709980941</v>
+        <v>2291.524683130151</v>
       </c>
       <c r="O29" t="n">
-        <v>2800.278169928958</v>
+        <v>2789.809143078167</v>
       </c>
       <c r="P29" t="n">
-        <v>3208.22445251495</v>
+        <v>3197.75542566416</v>
       </c>
       <c r="Q29" t="n">
-        <v>3452.407317645637</v>
+        <v>3452.407317645638</v>
       </c>
       <c r="R29" t="n">
-        <v>3499.107849618451</v>
+        <v>3499.107849618452</v>
       </c>
       <c r="S29" t="n">
         <v>3427.848059106665</v>
@@ -6503,7 +6503,7 @@
         <v>2664.631311146422</v>
       </c>
       <c r="X29" t="n">
-        <v>2385.865290774501</v>
+        <v>2385.8652907745</v>
       </c>
       <c r="Y29" t="n">
         <v>2095.587555456924</v>
@@ -6537,7 +6537,7 @@
         <v>128.0935758571978</v>
       </c>
       <c r="I30" t="n">
-        <v>69.98215699236903</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="J30" t="n">
         <v>157.8594836382963</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>436.8115547448187</v>
+        <v>436.811554744819</v>
       </c>
       <c r="C31" t="n">
-        <v>370.4597053130846</v>
+        <v>370.4597053130848</v>
       </c>
       <c r="D31" t="n">
-        <v>320.6519322474328</v>
+        <v>320.6519322474331</v>
       </c>
       <c r="E31" t="n">
-        <v>271.9070381153371</v>
+        <v>271.9070381153374</v>
       </c>
       <c r="F31" t="n">
-        <v>222.6905032476997</v>
+        <v>222.6905032477</v>
       </c>
       <c r="G31" t="n">
-        <v>157.2849703736962</v>
+        <v>157.2849703736965</v>
       </c>
       <c r="H31" t="n">
         <v>103.400022961616</v>
       </c>
       <c r="I31" t="n">
-        <v>69.98215699236903</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="J31" t="n">
-        <v>129.6591170611764</v>
+        <v>129.6591170611762</v>
       </c>
       <c r="K31" t="n">
-        <v>292.9508107464051</v>
+        <v>292.9508107464048</v>
       </c>
       <c r="L31" t="n">
-        <v>531.2095270480797</v>
+        <v>531.2095270480795</v>
       </c>
       <c r="M31" t="n">
-        <v>788.8356752321549</v>
+        <v>788.8356752321547</v>
       </c>
       <c r="N31" t="n">
         <v>1045.977034613511</v>
@@ -6652,19 +6652,19 @@
         <v>1288.138129556117</v>
       </c>
       <c r="U31" t="n">
-        <v>1104.225651732796</v>
+        <v>1104.225651732797</v>
       </c>
       <c r="V31" t="n">
-        <v>946.7544673978045</v>
+        <v>946.754467397805</v>
       </c>
       <c r="W31" t="n">
-        <v>763.8621860217892</v>
+        <v>763.8621860217896</v>
       </c>
       <c r="X31" t="n">
-        <v>635.8738420237504</v>
+        <v>635.8738420237509</v>
       </c>
       <c r="Y31" t="n">
-        <v>517.1028033226131</v>
+        <v>517.1028033226133</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1804.808136045491</v>
+        <v>1804.80813604549</v>
       </c>
       <c r="C32" t="n">
         <v>1526.138497484883</v>
@@ -6689,40 +6689,40 @@
         <v>654.1699824481407</v>
       </c>
       <c r="G32" t="n">
-        <v>341.8876613627825</v>
+        <v>341.8876613627824</v>
       </c>
       <c r="H32" t="n">
         <v>118.0404684219804</v>
       </c>
       <c r="I32" t="n">
-        <v>69.98215699236903</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="J32" t="n">
         <v>289.5691431564579</v>
       </c>
       <c r="K32" t="n">
-        <v>700.4291941146665</v>
+        <v>689.9601672638768</v>
       </c>
       <c r="L32" t="n">
-        <v>1134.548507345414</v>
+        <v>1124.079480494624</v>
       </c>
       <c r="M32" t="n">
-        <v>1714.479684777814</v>
+        <v>1714.479684777815</v>
       </c>
       <c r="N32" t="n">
-        <v>2291.524683130151</v>
+        <v>2291.524683130152</v>
       </c>
       <c r="O32" t="n">
-        <v>2789.809143078167</v>
+        <v>2789.809143078168</v>
       </c>
       <c r="P32" t="n">
-        <v>3197.755425664159</v>
+        <v>3197.75542566416</v>
       </c>
       <c r="Q32" t="n">
-        <v>3452.407317645637</v>
+        <v>3452.407317645638</v>
       </c>
       <c r="R32" t="n">
-        <v>3499.107849618451</v>
+        <v>3499.107849618452</v>
       </c>
       <c r="S32" t="n">
         <v>3427.848059106665</v>
@@ -6774,19 +6774,19 @@
         <v>128.0935758571978</v>
       </c>
       <c r="I33" t="n">
-        <v>69.98215699236903</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="J33" t="n">
-        <v>69.98215699236903</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="K33" t="n">
-        <v>69.98215699236903</v>
+        <v>346.6851241207642</v>
       </c>
       <c r="L33" t="n">
-        <v>499.2869199232762</v>
+        <v>775.9898870516713</v>
       </c>
       <c r="M33" t="n">
-        <v>1058.401844164559</v>
+        <v>1335.104811292954</v>
       </c>
       <c r="N33" t="n">
         <v>1535.108840640794</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>436.8115547448186</v>
+        <v>436.8115547448191</v>
       </c>
       <c r="C34" t="n">
-        <v>370.4597053130844</v>
+        <v>370.4597053130848</v>
       </c>
       <c r="D34" t="n">
-        <v>320.6519322474327</v>
+        <v>320.651932247433</v>
       </c>
       <c r="E34" t="n">
-        <v>271.907038115337</v>
+        <v>271.9070381153373</v>
       </c>
       <c r="F34" t="n">
-        <v>222.6905032476996</v>
+        <v>222.6905032476998</v>
       </c>
       <c r="G34" t="n">
-        <v>157.2849703736961</v>
+        <v>157.2849703736963</v>
       </c>
       <c r="H34" t="n">
-        <v>103.400022961616</v>
+        <v>103.4000229616161</v>
       </c>
       <c r="I34" t="n">
-        <v>69.98215699236903</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="J34" t="n">
-        <v>129.6591170611762</v>
+        <v>129.6591170611761</v>
       </c>
       <c r="K34" t="n">
-        <v>292.9508107464048</v>
+        <v>292.9508107464047</v>
       </c>
       <c r="L34" t="n">
-        <v>531.2095270480795</v>
+        <v>531.2095270480794</v>
       </c>
       <c r="M34" t="n">
-        <v>788.8356752321547</v>
+        <v>788.8356752321554</v>
       </c>
       <c r="N34" t="n">
-        <v>1045.977034613511</v>
+        <v>1045.977034613512</v>
       </c>
       <c r="O34" t="n">
-        <v>1280.296266092756</v>
+        <v>1280.296266092757</v>
       </c>
       <c r="P34" t="n">
         <v>1474.119912343314</v>
       </c>
       <c r="Q34" t="n">
-        <v>1558.083980830826</v>
+        <v>1558.083980830827</v>
       </c>
       <c r="R34" t="n">
         <v>1523.071529484706</v>
       </c>
       <c r="S34" t="n">
-        <v>1416.984372122637</v>
+        <v>1416.984372122638</v>
       </c>
       <c r="T34" t="n">
-        <v>1288.138129556117</v>
+        <v>1288.138129556118</v>
       </c>
       <c r="U34" t="n">
-        <v>1104.225651732796</v>
+        <v>1104.225651732797</v>
       </c>
       <c r="V34" t="n">
-        <v>946.7544673978045</v>
+        <v>946.7544673978052</v>
       </c>
       <c r="W34" t="n">
-        <v>763.8621860217892</v>
+        <v>763.8621860217897</v>
       </c>
       <c r="X34" t="n">
-        <v>635.8738420237504</v>
+        <v>635.873842023751</v>
       </c>
       <c r="Y34" t="n">
-        <v>517.102803322613</v>
+        <v>517.1028033226135</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1442.993093052649</v>
+        <v>1442.99309305265</v>
       </c>
       <c r="C35" t="n">
-        <v>1214.083264671161</v>
+        <v>1214.083264671162</v>
       </c>
       <c r="D35" t="n">
-        <v>994.283230184089</v>
+        <v>994.2832301840897</v>
       </c>
       <c r="E35" t="n">
-        <v>752.5214405759002</v>
+        <v>752.5214405759007</v>
       </c>
       <c r="F35" t="n">
-        <v>491.3941801717751</v>
+        <v>491.3941801717754</v>
       </c>
       <c r="G35" t="n">
         <v>228.8716692655361</v>
       </c>
       <c r="H35" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="I35" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="J35" t="n">
-        <v>173.1621085514776</v>
+        <v>173.1621085514777</v>
       </c>
       <c r="K35" t="n">
-        <v>482.8129953932216</v>
+        <v>482.8129953932219</v>
       </c>
       <c r="L35" t="n">
         <v>916.9323086239692</v>
@@ -6962,25 +6962,25 @@
         <v>2739.214325192661</v>
       </c>
       <c r="S35" t="n">
-        <v>2717.714344859993</v>
+        <v>2717.714344859994</v>
       </c>
       <c r="T35" t="n">
-        <v>2648.819983663266</v>
+        <v>2648.819983663268</v>
       </c>
       <c r="U35" t="n">
         <v>2547.003181291274</v>
       </c>
       <c r="V35" t="n">
-        <v>2363.047837472919</v>
+        <v>2363.04783747292</v>
       </c>
       <c r="W35" t="n">
-        <v>2153.536837616224</v>
+        <v>2153.536837616225</v>
       </c>
       <c r="X35" t="n">
-        <v>1924.530627423422</v>
+        <v>1924.530627423423</v>
       </c>
       <c r="Y35" t="n">
-        <v>1684.012702284964</v>
+        <v>1684.012702284965</v>
       </c>
     </row>
     <row r="36">
@@ -7011,13 +7011,13 @@
         <v>112.895705368682</v>
       </c>
       <c r="I36" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="J36" t="n">
         <v>142.6616131497805</v>
       </c>
       <c r="K36" t="n">
-        <v>419.3645802781756</v>
+        <v>419.3645802781757</v>
       </c>
       <c r="L36" t="n">
         <v>848.6693432090829</v>
@@ -7026,7 +7026,7 @@
         <v>1407.784267450365</v>
       </c>
       <c r="N36" t="n">
-        <v>1519.910970152278</v>
+        <v>1981.674759735938</v>
       </c>
       <c r="O36" t="n">
         <v>1981.674759735938</v>
@@ -7084,16 +7084,16 @@
         <v>74.55514643169926</v>
       </c>
       <c r="G37" t="n">
-        <v>58.90942373681456</v>
+        <v>58.90942373681457</v>
       </c>
       <c r="H37" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="I37" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="J37" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="K37" t="n">
         <v>116.8668160726174</v>
@@ -7102,22 +7102,22 @@
         <v>253.9163682578277</v>
       </c>
       <c r="M37" t="n">
-        <v>410.3333523254383</v>
+        <v>410.3333523254385</v>
       </c>
       <c r="N37" t="n">
-        <v>566.2655475903302</v>
+        <v>566.2655475903304</v>
       </c>
       <c r="O37" t="n">
-        <v>699.3756149531115</v>
+        <v>699.3756149531116</v>
       </c>
       <c r="P37" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="Q37" t="n">
-        <v>779.3766418777843</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="R37" t="n">
-        <v>779.3766418777843</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="S37" t="n">
         <v>723.0492946948347</v>
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1442.993093052651</v>
+        <v>1442.99309305265</v>
       </c>
       <c r="C38" t="n">
         <v>1214.083264671162</v>
       </c>
       <c r="D38" t="n">
-        <v>994.2832301840906</v>
+        <v>994.2832301840901</v>
       </c>
       <c r="E38" t="n">
-        <v>752.5214405759014</v>
+        <v>752.5214405759012</v>
       </c>
       <c r="F38" t="n">
-        <v>491.394180171776</v>
+        <v>491.3941801717758</v>
       </c>
       <c r="G38" t="n">
-        <v>228.8716692655361</v>
+        <v>228.8716692655362</v>
       </c>
       <c r="H38" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="I38" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="J38" t="n">
-        <v>173.1621085514776</v>
+        <v>173.1621085514777</v>
       </c>
       <c r="K38" t="n">
         <v>482.8129953932219</v>
       </c>
       <c r="L38" t="n">
-        <v>916.9323086239694</v>
+        <v>916.9323086239696</v>
       </c>
       <c r="M38" t="n">
         <v>1406.123348790696</v>
@@ -7190,13 +7190,13 @@
         <v>2279.03447885812</v>
       </c>
       <c r="P38" t="n">
-        <v>2585.771597327648</v>
+        <v>2585.771597327649</v>
       </c>
       <c r="Q38" t="n">
-        <v>2739.214325192661</v>
+        <v>2739.214325192662</v>
       </c>
       <c r="R38" t="n">
-        <v>2739.214325192661</v>
+        <v>2739.214325192662</v>
       </c>
       <c r="S38" t="n">
         <v>2717.714344859993</v>
@@ -7208,7 +7208,7 @@
         <v>2547.003181291275</v>
       </c>
       <c r="V38" t="n">
-        <v>2363.047837472921</v>
+        <v>2363.04783747292</v>
       </c>
       <c r="W38" t="n">
         <v>2153.536837616226</v>
@@ -7248,28 +7248,28 @@
         <v>112.895705368682</v>
       </c>
       <c r="I39" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="J39" t="n">
-        <v>142.6616131497805</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="K39" t="n">
-        <v>419.3645802781757</v>
+        <v>331.4872536322484</v>
       </c>
       <c r="L39" t="n">
-        <v>848.6693432090829</v>
+        <v>760.7920165631556</v>
       </c>
       <c r="M39" t="n">
-        <v>1407.784267450365</v>
+        <v>1319.906940804438</v>
       </c>
       <c r="N39" t="n">
-        <v>1519.910970152278</v>
+        <v>1715.004220754156</v>
       </c>
       <c r="O39" t="n">
-        <v>1981.674759735938</v>
+        <v>2176.768010337815</v>
       </c>
       <c r="P39" t="n">
-        <v>2339.601792504602</v>
+        <v>2534.695043106479</v>
       </c>
       <c r="Q39" t="n">
         <v>2534.695043106479</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>103.8086037802672</v>
+        <v>91.19514857084798</v>
       </c>
       <c r="C40" t="n">
-        <v>87.21656452765174</v>
+        <v>74.60310931823248</v>
       </c>
       <c r="D40" t="n">
-        <v>87.16860164111874</v>
+        <v>74.55514643169943</v>
       </c>
       <c r="E40" t="n">
-        <v>87.16860164111874</v>
+        <v>74.55514643169943</v>
       </c>
       <c r="F40" t="n">
-        <v>87.16860164111874</v>
+        <v>74.55514643169943</v>
       </c>
       <c r="G40" t="n">
-        <v>71.52287894623402</v>
+        <v>58.90942373681466</v>
       </c>
       <c r="H40" t="n">
-        <v>67.39774171327265</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="I40" t="n">
-        <v>67.39774171327265</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="J40" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="K40" t="n">
         <v>116.8668160726174</v>
@@ -7339,43 +7339,43 @@
         <v>253.9163682578277</v>
       </c>
       <c r="M40" t="n">
-        <v>410.3333523254384</v>
+        <v>410.3333523254385</v>
       </c>
       <c r="N40" t="n">
-        <v>566.2655475903302</v>
+        <v>566.2655475903304</v>
       </c>
       <c r="O40" t="n">
-        <v>699.3756149531115</v>
+        <v>699.3756149531116</v>
       </c>
       <c r="P40" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="Q40" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="R40" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="S40" t="n">
-        <v>735.6627499042544</v>
+        <v>735.6627499042546</v>
       </c>
       <c r="T40" t="n">
-        <v>656.5763175168527</v>
+        <v>643.9628623074339</v>
       </c>
       <c r="U40" t="n">
-        <v>522.423649872651</v>
+        <v>509.8101946632322</v>
       </c>
       <c r="V40" t="n">
-        <v>414.7122757167779</v>
+        <v>402.098820507359</v>
       </c>
       <c r="W40" t="n">
-        <v>281.5798045198813</v>
+        <v>268.9663493104623</v>
       </c>
       <c r="X40" t="n">
-        <v>203.3512707009614</v>
+        <v>190.7378154915423</v>
       </c>
       <c r="Y40" t="n">
-        <v>134.3400421789427</v>
+        <v>121.7265869695236</v>
       </c>
     </row>
     <row r="41">
@@ -7394,28 +7394,28 @@
         <v>994.2832301840896</v>
       </c>
       <c r="E41" t="n">
-        <v>752.5214405759008</v>
+        <v>752.5214405759007</v>
       </c>
       <c r="F41" t="n">
-        <v>491.3941801717755</v>
+        <v>491.3941801717753</v>
       </c>
       <c r="G41" t="n">
-        <v>228.871669265536</v>
+        <v>228.8716692655361</v>
       </c>
       <c r="H41" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="I41" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="J41" t="n">
-        <v>173.1621085514778</v>
+        <v>173.162108551478</v>
       </c>
       <c r="K41" t="n">
-        <v>482.8129953932219</v>
+        <v>482.8129953932221</v>
       </c>
       <c r="L41" t="n">
-        <v>916.9323086239696</v>
+        <v>916.9323086239698</v>
       </c>
       <c r="M41" t="n">
         <v>1406.123348790696</v>
@@ -7427,13 +7427,13 @@
         <v>2279.03447885812</v>
       </c>
       <c r="P41" t="n">
-        <v>2585.771597327648</v>
+        <v>2585.771597327649</v>
       </c>
       <c r="Q41" t="n">
-        <v>2739.214325192661</v>
+        <v>2739.214325192662</v>
       </c>
       <c r="R41" t="n">
-        <v>2739.214325192661</v>
+        <v>2739.214325192662</v>
       </c>
       <c r="S41" t="n">
         <v>2717.714344859993</v>
@@ -7485,19 +7485,19 @@
         <v>112.895705368682</v>
       </c>
       <c r="I42" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="J42" t="n">
-        <v>142.6616131497805</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="K42" t="n">
-        <v>419.3645802781757</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="L42" t="n">
-        <v>848.6693432090829</v>
+        <v>484.0890494347605</v>
       </c>
       <c r="M42" t="n">
-        <v>1407.784267450365</v>
+        <v>1043.203973676043</v>
       </c>
       <c r="N42" t="n">
         <v>1519.910970152278</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.19514857084752</v>
+        <v>91.19514857084764</v>
       </c>
       <c r="C43" t="n">
-        <v>74.60310931823214</v>
+        <v>74.60310931823223</v>
       </c>
       <c r="D43" t="n">
-        <v>74.5551464316992</v>
+        <v>74.55514643169926</v>
       </c>
       <c r="E43" t="n">
-        <v>74.5551464316992</v>
+        <v>74.55514643169926</v>
       </c>
       <c r="F43" t="n">
-        <v>74.5551464316992</v>
+        <v>74.55514643169926</v>
       </c>
       <c r="G43" t="n">
-        <v>58.90942373681455</v>
+        <v>58.90942373681457</v>
       </c>
       <c r="H43" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="I43" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="J43" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="K43" t="n">
         <v>116.8668160726174</v>
@@ -7576,43 +7576,43 @@
         <v>253.9163682578277</v>
       </c>
       <c r="M43" t="n">
-        <v>410.3333523254384</v>
+        <v>410.3333523254385</v>
       </c>
       <c r="N43" t="n">
-        <v>566.2655475903302</v>
+        <v>566.2655475903304</v>
       </c>
       <c r="O43" t="n">
-        <v>699.3756149531115</v>
+        <v>699.3756149531116</v>
       </c>
       <c r="P43" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="Q43" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="R43" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="S43" t="n">
-        <v>735.6627499042545</v>
+        <v>723.0492946948347</v>
       </c>
       <c r="T43" t="n">
-        <v>656.5763175168529</v>
+        <v>643.9628623074329</v>
       </c>
       <c r="U43" t="n">
-        <v>522.4236498726514</v>
+        <v>509.8101946632314</v>
       </c>
       <c r="V43" t="n">
-        <v>414.7122757167783</v>
+        <v>402.0988205073583</v>
       </c>
       <c r="W43" t="n">
-        <v>268.9663493104615</v>
+        <v>268.9663493104617</v>
       </c>
       <c r="X43" t="n">
-        <v>190.7378154915416</v>
+        <v>190.7378154915418</v>
       </c>
       <c r="Y43" t="n">
-        <v>121.726586969523</v>
+        <v>121.7265869695232</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1442.993093052649</v>
+        <v>1442.993093052651</v>
       </c>
       <c r="C44" t="n">
-        <v>1214.083264671161</v>
+        <v>1214.083264671162</v>
       </c>
       <c r="D44" t="n">
-        <v>994.283230184089</v>
+        <v>994.2832301840899</v>
       </c>
       <c r="E44" t="n">
-        <v>752.5214405759004</v>
+        <v>752.5214405759009</v>
       </c>
       <c r="F44" t="n">
-        <v>491.3941801717756</v>
+        <v>491.394180171776</v>
       </c>
       <c r="G44" t="n">
-        <v>228.871669265536</v>
+        <v>228.8716692655362</v>
       </c>
       <c r="H44" t="n">
-        <v>54.78428650385321</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="I44" t="n">
-        <v>54.78428650385321</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="J44" t="n">
-        <v>173.162108551477</v>
+        <v>173.1621085514777</v>
       </c>
       <c r="K44" t="n">
-        <v>482.8129953932212</v>
+        <v>482.8129953932219</v>
       </c>
       <c r="L44" t="n">
-        <v>916.9323086239689</v>
+        <v>916.9323086239696</v>
       </c>
       <c r="M44" t="n">
-        <v>1406.123348790695</v>
+        <v>1406.123348790696</v>
       </c>
       <c r="N44" t="n">
-        <v>1881.959183026567</v>
+        <v>1881.959183026568</v>
       </c>
       <c r="O44" t="n">
-        <v>2279.034478858119</v>
+        <v>2279.03447885812</v>
       </c>
       <c r="P44" t="n">
-        <v>2585.771597327647</v>
+        <v>2585.771597327648</v>
       </c>
       <c r="Q44" t="n">
-        <v>2739.21432519266</v>
+        <v>2739.214325192662</v>
       </c>
       <c r="R44" t="n">
-        <v>2739.21432519266</v>
+        <v>2739.214325192662</v>
       </c>
       <c r="S44" t="n">
-        <v>2717.714344859992</v>
+        <v>2717.714344859994</v>
       </c>
       <c r="T44" t="n">
-        <v>2648.819983663266</v>
+        <v>2648.819983663268</v>
       </c>
       <c r="U44" t="n">
-        <v>2547.003181291274</v>
+        <v>2547.003181291275</v>
       </c>
       <c r="V44" t="n">
-        <v>2363.047837472919</v>
+        <v>2363.04783747292</v>
       </c>
       <c r="W44" t="n">
-        <v>2153.536837616224</v>
+        <v>2153.536837616226</v>
       </c>
       <c r="X44" t="n">
-        <v>1924.530627423422</v>
+        <v>1924.530627423424</v>
       </c>
       <c r="Y44" t="n">
-        <v>1684.012702284964</v>
+        <v>1684.012702284966</v>
       </c>
     </row>
     <row r="45">
@@ -7722,13 +7722,13 @@
         <v>112.895705368682</v>
       </c>
       <c r="I45" t="n">
-        <v>54.78428650385321</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="J45" t="n">
         <v>142.6616131497805</v>
       </c>
       <c r="K45" t="n">
-        <v>419.3645802781756</v>
+        <v>419.3645802781757</v>
       </c>
       <c r="L45" t="n">
         <v>848.6693432090829</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>103.8086037802678</v>
+        <v>103.8086037802671</v>
       </c>
       <c r="C46" t="n">
-        <v>87.21656452765242</v>
+        <v>87.21656452765157</v>
       </c>
       <c r="D46" t="n">
-        <v>87.16860164111948</v>
+        <v>87.16860164111851</v>
       </c>
       <c r="E46" t="n">
-        <v>87.16860164111948</v>
+        <v>87.16860164111851</v>
       </c>
       <c r="F46" t="n">
-        <v>87.16860164111948</v>
+        <v>74.55514643169943</v>
       </c>
       <c r="G46" t="n">
-        <v>71.52287894623483</v>
+        <v>58.90942373681466</v>
       </c>
       <c r="H46" t="n">
-        <v>54.78428650385321</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="I46" t="n">
-        <v>54.78428650385321</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="J46" t="n">
-        <v>54.78428650385321</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="K46" t="n">
         <v>116.8668160726174</v>
@@ -7813,43 +7813,43 @@
         <v>253.9163682578277</v>
       </c>
       <c r="M46" t="n">
-        <v>410.3333523254383</v>
+        <v>410.3333523254385</v>
       </c>
       <c r="N46" t="n">
-        <v>566.2655475903302</v>
+        <v>566.2655475903304</v>
       </c>
       <c r="O46" t="n">
-        <v>699.3756149531115</v>
+        <v>699.3756149531116</v>
       </c>
       <c r="P46" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="Q46" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="R46" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="S46" t="n">
-        <v>735.6627499042545</v>
+        <v>735.6627499042546</v>
       </c>
       <c r="T46" t="n">
         <v>656.5763175168529</v>
       </c>
       <c r="U46" t="n">
-        <v>522.4236498726514</v>
+        <v>522.4236498726513</v>
       </c>
       <c r="V46" t="n">
-        <v>414.7122757167783</v>
+        <v>414.7122757167781</v>
       </c>
       <c r="W46" t="n">
-        <v>281.5798045198818</v>
+        <v>281.5798045198814</v>
       </c>
       <c r="X46" t="n">
-        <v>203.3512707009619</v>
+        <v>203.3512707009614</v>
       </c>
       <c r="Y46" t="n">
-        <v>134.3400421789433</v>
+        <v>134.3400421789427</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>100.2520420998329</v>
       </c>
       <c r="K11" t="n">
         <v>108.6103627649948</v>
@@ -8696,13 +8696,13 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>184.6696171970103</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
-        <v>495.0402356415689</v>
+        <v>214.9158169217613</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
@@ -8766,19 +8766,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>75.15336953250393</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>482.0924488944969</v>
+        <v>346.4197909441266</v>
       </c>
       <c r="M12" t="n">
-        <v>301.5493384427205</v>
+        <v>40.65403313633085</v>
       </c>
       <c r="N12" t="n">
-        <v>29.90474766193712</v>
+        <v>534.7716240055162</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>76.03658455975842</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.8255997236959</v>
+        <v>100.2520420998329</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -8933,7 +8933,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>280.3274676241626</v>
+        <v>399.9010252480249</v>
       </c>
       <c r="N14" t="n">
         <v>568.5510017355793</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>45.70905082430152</v>
+        <v>45.70905082430062</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9170,7 +9170,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>280.3274676241626</v>
+        <v>435.3201220332661</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
@@ -9182,7 +9182,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.0094878578761</v>
+        <v>121.0168334487717</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>45.70905082430152</v>
+        <v>45.7090508243006</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9407,7 +9407,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>280.3274676241626</v>
+        <v>280.3274676241618</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>45.70905082430152</v>
+        <v>45.70905082430059</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9644,7 +9644,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>280.3274676241626</v>
+        <v>280.3274676241635</v>
       </c>
       <c r="N23" t="n">
         <v>568.5510017355793</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>45.70905082430152</v>
+        <v>45.7090508243022</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>75.15336953250393</v>
+        <v>75.15336953250392</v>
       </c>
       <c r="K33" t="n">
-        <v>64.30686152201368</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>511.4269663248014</v>
+        <v>231.9290197304629</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10674,10 +10674,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>143.1640433204351</v>
+        <v>609.5921136069596</v>
       </c>
       <c r="O36" t="n">
-        <v>512.0210150597484</v>
+        <v>45.59294477322392</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
@@ -10838,7 +10838,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>418.3383206229279</v>
+        <v>418.3383206229278</v>
       </c>
       <c r="Q38" t="n">
         <v>276.0094878578761</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>75.15336953250392</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>143.1640433204351</v>
+        <v>428.9929092273085</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>76.03658455975841</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>75.15336953250392</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>64.30686152201365</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>143.1640433204351</v>
+        <v>511.4269663248011</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236953</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11315,7 +11315,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578764</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>275.8829421750011</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>266.864246219529</v>
       </c>
       <c r="E11" t="n">
         <v>288.6063837894345</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6087210113936</v>
+        <v>146.3544434986829</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>150.0608464255999</v>
       </c>
       <c r="V11" t="n">
-        <v>231.3780024574984</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>256.6781019354553</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>129.4976529144665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>287.8716252173193</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>275.8829421750011</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>162.2289415486559</v>
+        <v>307.7781998774117</v>
       </c>
       <c r="G14" t="n">
-        <v>309.1594978745046</v>
+        <v>220.1992802987718</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>231.3780024574984</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>275.9783601682019</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>76587.66315073044</v>
+      </c>
+      <c r="C2" t="n">
         <v>76587.66315073041</v>
       </c>
-      <c r="C2" t="n">
-        <v>76587.66315073043</v>
-      </c>
       <c r="D2" t="n">
-        <v>76587.66315073038</v>
+        <v>76587.66315073041</v>
       </c>
       <c r="E2" t="n">
-        <v>65335.45143601223</v>
+        <v>65335.45143601229</v>
       </c>
       <c r="F2" t="n">
         <v>68521.90818794098</v>
       </c>
       <c r="G2" t="n">
+        <v>76762.40604941806</v>
+      </c>
+      <c r="H2" t="n">
+        <v>76762.4060494181</v>
+      </c>
+      <c r="I2" t="n">
         <v>76762.40604941809</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>76762.406049418</v>
+      </c>
+      <c r="K2" t="n">
         <v>76762.40604941807</v>
       </c>
-      <c r="I2" t="n">
-        <v>76762.40604941807</v>
-      </c>
-      <c r="J2" t="n">
-        <v>76762.40604941796</v>
-      </c>
-      <c r="K2" t="n">
-        <v>76762.40604941806</v>
-      </c>
       <c r="L2" t="n">
-        <v>76762.40604941797</v>
+        <v>76762.40604941799</v>
       </c>
       <c r="M2" t="n">
         <v>76762.40604941819</v>
       </c>
       <c r="N2" t="n">
-        <v>76762.40604941813</v>
+        <v>76762.40604941816</v>
       </c>
       <c r="O2" t="n">
+        <v>76762.40604941818</v>
+      </c>
+      <c r="P2" t="n">
         <v>76762.40604941816</v>
-      </c>
-      <c r="P2" t="n">
-        <v>76762.40604941826</v>
       </c>
     </row>
     <row r="3">
@@ -26375,31 +26375,31 @@
         <v>342836.575945662</v>
       </c>
       <c r="F3" t="n">
-        <v>29555.46087811044</v>
+        <v>29555.46087811027</v>
       </c>
       <c r="G3" t="n">
-        <v>56437.75408533523</v>
+        <v>56437.75408533536</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>95143.32741586951</v>
+        <v>95143.32741586953</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>56437.75408533523</v>
+        <v>56437.75408533531</v>
       </c>
       <c r="M3" t="n">
-        <v>117882.4882489361</v>
+        <v>117882.4882489362</v>
       </c>
       <c r="N3" t="n">
-        <v>25264.47989534268</v>
+        <v>25264.47989534249</v>
       </c>
       <c r="O3" t="n">
         <v>25347.42903908053</v>
@@ -26424,13 +26424,13 @@
         <v>406144.6554248994</v>
       </c>
       <c r="E4" t="n">
-        <v>265672.9839936035</v>
+        <v>265672.9839936034</v>
       </c>
       <c r="F4" t="n">
-        <v>275991.7514658779</v>
+        <v>275991.7514658778</v>
       </c>
       <c r="G4" t="n">
-        <v>322791.7341880637</v>
+        <v>322791.7341880638</v>
       </c>
       <c r="H4" t="n">
         <v>322791.7341880637</v>
@@ -26457,7 +26457,7 @@
         <v>318317.5955738486</v>
       </c>
       <c r="P4" t="n">
-        <v>318317.5955738486</v>
+        <v>318317.5955738485</v>
       </c>
     </row>
     <row r="5">
@@ -26476,31 +26476,31 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>42283.59905881008</v>
+        <v>42283.5990588101</v>
       </c>
       <c r="F5" t="n">
-        <v>48555.18356209814</v>
+        <v>48555.18356209813</v>
       </c>
       <c r="G5" t="n">
         <v>54486.0154973482</v>
       </c>
       <c r="H5" t="n">
-        <v>54486.0154973482</v>
+        <v>54486.01549734819</v>
       </c>
       <c r="I5" t="n">
-        <v>54486.0154973482</v>
+        <v>54486.01549734821</v>
       </c>
       <c r="J5" t="n">
-        <v>64774.13229132094</v>
+        <v>64774.13229132096</v>
       </c>
       <c r="K5" t="n">
-        <v>64774.13229132095</v>
+        <v>64774.13229132096</v>
       </c>
       <c r="L5" t="n">
         <v>64774.13229132095</v>
       </c>
       <c r="M5" t="n">
-        <v>57365.17562717779</v>
+        <v>57365.1756271778</v>
       </c>
       <c r="N5" t="n">
         <v>57365.1756271778</v>
@@ -26509,7 +26509,7 @@
         <v>57365.17562717781</v>
       </c>
       <c r="P5" t="n">
-        <v>57365.17562717779</v>
+        <v>57365.1756271778</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-363184.592274169</v>
+        <v>-363188.9608466362</v>
       </c>
       <c r="C6" t="n">
-        <v>-363184.592274169</v>
+        <v>-363188.9608466362</v>
       </c>
       <c r="D6" t="n">
-        <v>-363184.592274169</v>
+        <v>-363188.9608466362</v>
       </c>
       <c r="E6" t="n">
-        <v>-585457.7075620632</v>
+        <v>-585743.3814273985</v>
       </c>
       <c r="F6" t="n">
-        <v>-285580.4877181455</v>
+        <v>-285786.5001646822</v>
       </c>
       <c r="G6" t="n">
-        <v>-356953.0977213291</v>
+        <v>-356953.0977213292</v>
       </c>
       <c r="H6" t="n">
-        <v>-300515.3436359939</v>
+        <v>-300515.3436359937</v>
       </c>
       <c r="I6" t="n">
-        <v>-300515.3436359938</v>
+        <v>-300515.343635994</v>
       </c>
       <c r="J6" t="n">
         <v>-402476.6235654032</v>
       </c>
       <c r="K6" t="n">
-        <v>-307333.2961495336</v>
+        <v>-307333.2961495335</v>
       </c>
       <c r="L6" t="n">
         <v>-363771.0502348689</v>
       </c>
       <c r="M6" t="n">
-        <v>-416802.8534005443</v>
+        <v>-416802.8534005444</v>
       </c>
       <c r="N6" t="n">
-        <v>-324184.845046951</v>
+        <v>-324184.8450469507</v>
       </c>
       <c r="O6" t="n">
         <v>-324267.7941906888</v>
@@ -26698,7 +26698,7 @@
         <v>102.2314789055197</v>
       </c>
       <c r="G2" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="H2" t="n">
         <v>172.7786715121887</v>
@@ -26707,13 +26707,13 @@
         <v>172.7786715121887</v>
       </c>
       <c r="J2" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="K2" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="L2" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="M2" t="n">
         <v>151.4936909828473</v>
@@ -26725,7 +26725,7 @@
         <v>151.4936909828473</v>
       </c>
       <c r="P2" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
     </row>
     <row r="3">
@@ -26768,16 +26768,16 @@
         <v>137.3025127069891</v>
       </c>
       <c r="M3" t="n">
-        <v>137.3025127069891</v>
+        <v>137.3025127069892</v>
       </c>
       <c r="N3" t="n">
-        <v>137.3025127069891</v>
+        <v>137.3025127069892</v>
       </c>
       <c r="O3" t="n">
-        <v>137.3025127069891</v>
+        <v>137.3025127069892</v>
       </c>
       <c r="P3" t="n">
-        <v>137.3025127069891</v>
+        <v>137.3025127069892</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.8668763435787</v>
+        <v>504.8668763435791</v>
       </c>
       <c r="F4" t="n">
-        <v>608.0179372529218</v>
+        <v>608.0179372529216</v>
       </c>
       <c r="G4" t="n">
-        <v>608.0179372529218</v>
+        <v>608.0179372529216</v>
       </c>
       <c r="H4" t="n">
-        <v>608.0179372529218</v>
+        <v>608.0179372529216</v>
       </c>
       <c r="I4" t="n">
-        <v>608.0179372529218</v>
+        <v>608.017937252922</v>
       </c>
       <c r="J4" t="n">
-        <v>874.7769624046127</v>
+        <v>874.7769624046131</v>
       </c>
       <c r="K4" t="n">
-        <v>874.7769624046128</v>
+        <v>874.776962404613</v>
       </c>
       <c r="L4" t="n">
-        <v>874.7769624046128</v>
+        <v>874.776962404613</v>
       </c>
       <c r="M4" t="n">
-        <v>684.8035812981652</v>
+        <v>684.8035812981653</v>
       </c>
       <c r="N4" t="n">
-        <v>684.8035812981653</v>
+        <v>684.8035812981655</v>
       </c>
       <c r="O4" t="n">
-        <v>684.8035812981653</v>
+        <v>684.8035812981655</v>
       </c>
       <c r="P4" t="n">
-        <v>684.8035812981651</v>
+        <v>684.8035812981655</v>
       </c>
     </row>
   </sheetData>
@@ -26920,25 +26920,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>70.54719260666903</v>
+        <v>70.5471926066692</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.68428629885061</v>
+        <v>31.68428629885058</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>70.54719260666903</v>
+        <v>70.54719260666914</v>
       </c>
       <c r="M2" t="n">
-        <v>49.26221207732763</v>
+        <v>49.26221207732753</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.8668763435787</v>
+        <v>504.8668763435791</v>
       </c>
       <c r="F4" t="n">
-        <v>103.1510609093431</v>
+        <v>103.1510609093425</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>266.7590251516909</v>
+        <v>266.759025151691</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>314.8934952371311</v>
+        <v>314.8934952371316</v>
       </c>
       <c r="N4" t="n">
-        <v>103.1510609093432</v>
+        <v>103.1510609093426</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>70.54719260666903</v>
+        <v>70.5471926066692</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.68428629885061</v>
+        <v>31.68428629885058</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.8668763435787</v>
+        <v>504.8668763435791</v>
       </c>
       <c r="N4" t="n">
-        <v>103.1510609093431</v>
+        <v>103.1510609093425</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28178,16 +28178,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>96.08621347328979</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>57.53030467618051</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>35.51332045640916</v>
       </c>
       <c r="T12" t="n">
-        <v>86.89835970036077</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="U12" t="n">
-        <v>102.2314789055197</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>102.2314789055197</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>102.2314789055197</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>102.2314789055197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>95.51563814546191</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28457,7 +28457,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>95.51563814546118</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="C17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="D17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="E17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="F17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="G17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="H17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="I17" t="n">
         <v>149.8092072208349</v>
@@ -28615,22 +28615,22 @@
         <v>172.7786715121887</v>
       </c>
       <c r="T17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="U17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="V17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="W17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="X17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="Y17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
     </row>
     <row r="18">
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>40.85006423600236</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>54.66557390945951</v>
       </c>
       <c r="T18" t="n">
-        <v>95.51563814546118</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28737,13 +28737,13 @@
         <v>166.9829564507831</v>
       </c>
       <c r="H19" t="n">
-        <v>89.49811323426398</v>
+        <v>155.577576843479</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>131.2316406491403</v>
       </c>
       <c r="J19" t="n">
-        <v>41.95172126025992</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>17.4192885140925</v>
       </c>
       <c r="R19" t="n">
         <v>136.8938057381792</v>
       </c>
       <c r="S19" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="T19" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="U19" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="V19" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="W19" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="X19" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121889</v>
       </c>
       <c r="Y19" t="n">
-        <v>172.7786715121887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28819,7 +28819,7 @@
         <v>172.7786715121887</v>
       </c>
       <c r="I20" t="n">
-        <v>149.8092072208349</v>
+        <v>149.8092072208348</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.05922438752567</v>
+        <v>55.05922438752566</v>
       </c>
       <c r="S20" t="n">
         <v>172.7786715121887</v>
@@ -28895,10 +28895,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>37.98533346928139</v>
       </c>
       <c r="I21" t="n">
-        <v>54.66557390945857</v>
+        <v>57.53030467618051</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>40.85006423600236</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144.1627132000882</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9829564507831</v>
+        <v>102.4821323646732</v>
       </c>
       <c r="H22" t="n">
         <v>155.577576843479</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>136.8938057381792</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>172.7786715121887</v>
@@ -29022,7 +29022,7 @@
         <v>172.7786715121887</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="Y22" t="n">
         <v>172.7786715121887</v>
@@ -29056,7 +29056,7 @@
         <v>172.7786715121887</v>
       </c>
       <c r="I23" t="n">
-        <v>149.8092072208349</v>
+        <v>149.8092072208348</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.05922438752567</v>
+        <v>55.05922438752566</v>
       </c>
       <c r="S23" t="n">
         <v>172.7786715121887</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>40.85006423600235</v>
       </c>
       <c r="S24" t="n">
-        <v>95.51563814546103</v>
+        <v>54.66557390945771</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29202,10 +29202,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>82.63085418239329</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>166.9829564507831</v>
@@ -29241,7 +29241,7 @@
         <v>17.4192885140925</v>
       </c>
       <c r="R25" t="n">
-        <v>136.8938057381792</v>
+        <v>90.85855891198611</v>
       </c>
       <c r="S25" t="n">
         <v>172.7786715121887</v>
@@ -29250,7 +29250,7 @@
         <v>172.7786715121887</v>
       </c>
       <c r="U25" t="n">
-        <v>172.7786715121887</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>172.7786715121887</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="C26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="D26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="E26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="F26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="G26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="H26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="I26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="L26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="M26" t="n">
-        <v>102.2314789055197</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>91.65670430876077</v>
+        <v>91.65670430876236</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="P26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="R26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="S26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="T26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="U26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="V26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="W26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="X26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="C28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="D28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="E28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="F28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="J28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="K28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="L28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="M28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="N28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="O28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="P28" t="n">
-        <v>102.2314789055191</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="R28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="S28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="T28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="U28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="V28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="W28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="X28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="C29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="D29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="E29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="F29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="G29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="H29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="I29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="L29" t="n">
-        <v>102.2314789055197</v>
+        <v>91.65670430876185</v>
       </c>
       <c r="M29" t="n">
-        <v>102.2314789055197</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="O29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="P29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Q29" t="n">
-        <v>91.65670430876156</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="R29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="S29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="T29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="U29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="V29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="W29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="X29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Y29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="C31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="D31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="E31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="F31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="J31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="K31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="L31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="M31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="N31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="O31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="P31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="R31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="S31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="T31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="U31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="V31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="W31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="X31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Y31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="C32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="D32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="E32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="F32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="G32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="H32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="I32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2314789055197</v>
+        <v>91.65670430876236</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>91.65670430876116</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="N32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="O32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="P32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="R32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="S32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="T32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="U32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="V32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="W32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="X32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="C34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="D34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="E34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="F34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="J34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="K34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="L34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="M34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055205</v>
       </c>
       <c r="N34" t="n">
-        <v>102.2314789055194</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="O34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="P34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="R34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="S34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="T34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="U34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="V34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="W34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="X34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Y34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>151.4936909828473</v>
       </c>
       <c r="I35" t="n">
-        <v>149.8092072208349</v>
+        <v>149.8092072208348</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.05922438752567</v>
+        <v>55.05922438752565</v>
       </c>
       <c r="S35" t="n">
         <v>151.4936909828473</v>
@@ -30165,7 +30165,7 @@
         <v>135.3151662150742</v>
       </c>
       <c r="J37" t="n">
-        <v>41.95172126025992</v>
+        <v>41.95172126025991</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,13 +30186,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.931967856766972</v>
+        <v>17.41928851409249</v>
       </c>
       <c r="R37" t="n">
         <v>136.8938057381792</v>
       </c>
       <c r="S37" t="n">
-        <v>151.4936909828473</v>
+        <v>139.0063703255215</v>
       </c>
       <c r="T37" t="n">
         <v>151.4936909828473</v>
@@ -30241,7 +30241,7 @@
         <v>151.4936909828472</v>
       </c>
       <c r="I38" t="n">
-        <v>149.8092072208349</v>
+        <v>149.8092072208348</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.05922438752567</v>
+        <v>55.05922438752565</v>
       </c>
       <c r="S38" t="n">
         <v>151.4936909828472</v>
@@ -30402,7 +30402,7 @@
         <v>135.3151662150742</v>
       </c>
       <c r="J40" t="n">
-        <v>29.46440060293469</v>
+        <v>41.95172126025991</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.4192885140925</v>
+        <v>17.41928851409249</v>
       </c>
       <c r="R40" t="n">
         <v>136.8938057381792</v>
@@ -30432,7 +30432,7 @@
         <v>151.4936909828472</v>
       </c>
       <c r="T40" t="n">
-        <v>151.4936909828472</v>
+        <v>139.0063703255224</v>
       </c>
       <c r="U40" t="n">
         <v>151.4936909828472</v>
@@ -30478,7 +30478,7 @@
         <v>151.4936909828473</v>
       </c>
       <c r="I41" t="n">
-        <v>149.8092072208349</v>
+        <v>149.8092072208348</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.05922438752567</v>
+        <v>55.05922438752565</v>
       </c>
       <c r="S41" t="n">
         <v>151.4936909828473</v>
@@ -30639,7 +30639,7 @@
         <v>135.3151662150742</v>
       </c>
       <c r="J43" t="n">
-        <v>41.95172126025992</v>
+        <v>41.95172126025991</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,13 +30660,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.4192885140925</v>
+        <v>17.41928851409249</v>
       </c>
       <c r="R43" t="n">
         <v>136.8938057381792</v>
       </c>
       <c r="S43" t="n">
-        <v>151.4936909828473</v>
+        <v>139.0063703255215</v>
       </c>
       <c r="T43" t="n">
         <v>151.4936909828473</v>
@@ -30678,7 +30678,7 @@
         <v>151.4936909828473</v>
       </c>
       <c r="W43" t="n">
-        <v>139.0063703255212</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="X43" t="n">
         <v>151.4936909828473</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="C44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="D44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="E44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="F44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="G44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="H44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="I44" t="n">
-        <v>149.8092072208349</v>
+        <v>149.8092072208348</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.05922438752567</v>
+        <v>55.05922438752565</v>
       </c>
       <c r="S44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="T44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="U44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="V44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="W44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="X44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="Y44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
     </row>
     <row r="45">
@@ -30852,31 +30852,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="C46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="D46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>138.4685277671558</v>
       </c>
       <c r="G46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="H46" t="n">
-        <v>139.0063703255212</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="I46" t="n">
         <v>135.3151662150742</v>
       </c>
       <c r="J46" t="n">
-        <v>41.95172126025992</v>
+        <v>41.95172126025991</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.4192885140925</v>
+        <v>17.41928851409249</v>
       </c>
       <c r="R46" t="n">
         <v>136.8938057381792</v>
       </c>
       <c r="S46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="T46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="U46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="V46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="W46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="X46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="Y46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
     </row>
   </sheetData>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296038</v>
       </c>
       <c r="H14" t="n">
-        <v>5.652861741750558</v>
+        <v>5.652861741750557</v>
       </c>
       <c r="I14" t="n">
-        <v>21.27981958245708</v>
+        <v>21.27981958245707</v>
       </c>
       <c r="J14" t="n">
-        <v>46.84775532809977</v>
+        <v>46.84775532809976</v>
       </c>
       <c r="K14" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905191</v>
       </c>
       <c r="L14" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626404</v>
       </c>
       <c r="M14" t="n">
-        <v>96.92108476125064</v>
+        <v>96.92108476125063</v>
       </c>
       <c r="N14" t="n">
-        <v>98.48936924056214</v>
+        <v>98.48936924056211</v>
       </c>
       <c r="O14" t="n">
-        <v>93.00071854415964</v>
+        <v>93.00071854415961</v>
       </c>
       <c r="P14" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977251</v>
       </c>
       <c r="Q14" t="n">
-        <v>59.60653957421856</v>
+        <v>59.60653957421855</v>
       </c>
       <c r="R14" t="n">
-        <v>34.67267925157952</v>
+        <v>34.67267925157951</v>
       </c>
       <c r="S14" t="n">
         <v>12.57801410376086</v>
       </c>
       <c r="T14" t="n">
-        <v>2.416248238692843</v>
+        <v>2.416248238692842</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.0441575920263683</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,40 +32075,40 @@
         <v>10.1681577806591</v>
       </c>
       <c r="J15" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416275</v>
       </c>
       <c r="K15" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465298</v>
       </c>
       <c r="L15" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433485</v>
       </c>
       <c r="M15" t="n">
-        <v>74.82986942530904</v>
+        <v>74.82986942530903</v>
       </c>
       <c r="N15" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577118</v>
       </c>
       <c r="O15" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788713</v>
       </c>
       <c r="P15" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431029</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513405</v>
       </c>
       <c r="R15" t="n">
-        <v>18.33636198000131</v>
+        <v>18.3363619800013</v>
       </c>
       <c r="S15" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661305</v>
       </c>
       <c r="T15" t="n">
         <v>1.190386879035122</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01942960085476262</v>
+        <v>0.01942960085476261</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,31 +32148,31 @@
         <v>0.2475946950453901</v>
       </c>
       <c r="H16" t="n">
-        <v>2.201341925039925</v>
+        <v>2.201341925039924</v>
       </c>
       <c r="I16" t="n">
-        <v>7.445847738274098</v>
+        <v>7.445847738274097</v>
       </c>
       <c r="J16" t="n">
         <v>17.50494493970908</v>
       </c>
       <c r="K16" t="n">
-        <v>28.76600184254623</v>
+        <v>28.76600184254622</v>
       </c>
       <c r="L16" t="n">
-        <v>36.81057857065737</v>
+        <v>36.81057857065736</v>
       </c>
       <c r="M16" t="n">
-        <v>38.81159387879693</v>
+        <v>38.81159387879691</v>
       </c>
       <c r="N16" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453685</v>
       </c>
       <c r="O16" t="n">
         <v>34.99638471423388</v>
       </c>
       <c r="P16" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530789</v>
       </c>
       <c r="Q16" t="n">
         <v>20.73267941875535</v>
@@ -32181,7 +32181,7 @@
         <v>11.13275783358636</v>
       </c>
       <c r="S16" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381933</v>
       </c>
       <c r="T16" t="n">
         <v>1.05790460610303</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296041</v>
       </c>
       <c r="H20" t="n">
-        <v>5.652861741750558</v>
+        <v>5.652861741750559</v>
       </c>
       <c r="I20" t="n">
         <v>21.27981958245708</v>
       </c>
       <c r="J20" t="n">
-        <v>46.84775532809977</v>
+        <v>46.84775532809978</v>
       </c>
       <c r="K20" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905194</v>
       </c>
       <c r="L20" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626408</v>
       </c>
       <c r="M20" t="n">
-        <v>96.92108476125064</v>
+        <v>96.92108476125067</v>
       </c>
       <c r="N20" t="n">
-        <v>98.48936924056214</v>
+        <v>98.48936924056216</v>
       </c>
       <c r="O20" t="n">
-        <v>93.00071854415964</v>
+        <v>93.00071854415965</v>
       </c>
       <c r="P20" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977254</v>
       </c>
       <c r="Q20" t="n">
-        <v>59.60653957421856</v>
+        <v>59.60653957421857</v>
       </c>
       <c r="R20" t="n">
         <v>34.67267925157952</v>
       </c>
       <c r="S20" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376087</v>
       </c>
       <c r="T20" t="n">
         <v>2.416248238692843</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636832</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923917</v>
       </c>
       <c r="H21" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479152</v>
       </c>
       <c r="I21" t="n">
         <v>10.1681577806591</v>
       </c>
       <c r="J21" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416277</v>
       </c>
       <c r="K21" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465301</v>
       </c>
       <c r="L21" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433488</v>
       </c>
       <c r="M21" t="n">
-        <v>74.82986942530904</v>
+        <v>74.82986942530906</v>
       </c>
       <c r="N21" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577121</v>
       </c>
       <c r="O21" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788716</v>
       </c>
       <c r="P21" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431031</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513408</v>
       </c>
       <c r="R21" t="n">
         <v>18.33636198000131</v>
       </c>
       <c r="S21" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661307</v>
       </c>
       <c r="T21" t="n">
         <v>1.190386879035122</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453902</v>
       </c>
       <c r="H22" t="n">
         <v>2.201341925039925</v>
       </c>
       <c r="I22" t="n">
-        <v>7.445847738274098</v>
+        <v>7.4458477382741</v>
       </c>
       <c r="J22" t="n">
         <v>17.50494493970908</v>
@@ -32634,34 +32634,34 @@
         <v>28.76600184254623</v>
       </c>
       <c r="L22" t="n">
-        <v>36.81057857065737</v>
+        <v>36.81057857065738</v>
       </c>
       <c r="M22" t="n">
         <v>38.81159387879693</v>
       </c>
       <c r="N22" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453687</v>
       </c>
       <c r="O22" t="n">
-        <v>34.99638471423388</v>
+        <v>34.99638471423389</v>
       </c>
       <c r="P22" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530791</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875536</v>
       </c>
       <c r="R22" t="n">
         <v>11.13275783358636</v>
       </c>
       <c r="S22" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381935</v>
       </c>
       <c r="T22" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103031</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.01350516518429403</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296041</v>
       </c>
       <c r="H23" t="n">
-        <v>5.652861741750558</v>
+        <v>5.652861741750559</v>
       </c>
       <c r="I23" t="n">
         <v>21.27981958245708</v>
       </c>
       <c r="J23" t="n">
-        <v>46.84775532809977</v>
+        <v>46.84775532809978</v>
       </c>
       <c r="K23" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905194</v>
       </c>
       <c r="L23" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626408</v>
       </c>
       <c r="M23" t="n">
-        <v>96.92108476125064</v>
+        <v>96.92108476125067</v>
       </c>
       <c r="N23" t="n">
-        <v>98.48936924056214</v>
+        <v>98.48936924056216</v>
       </c>
       <c r="O23" t="n">
-        <v>93.00071854415964</v>
+        <v>93.00071854415965</v>
       </c>
       <c r="P23" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977254</v>
       </c>
       <c r="Q23" t="n">
-        <v>59.60653957421856</v>
+        <v>59.60653957421857</v>
       </c>
       <c r="R23" t="n">
         <v>34.67267925157952</v>
       </c>
       <c r="S23" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376087</v>
       </c>
       <c r="T23" t="n">
         <v>2.416248238692843</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636832</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923917</v>
       </c>
       <c r="H24" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479152</v>
       </c>
       <c r="I24" t="n">
         <v>10.1681577806591</v>
       </c>
       <c r="J24" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416277</v>
       </c>
       <c r="K24" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465301</v>
       </c>
       <c r="L24" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433488</v>
       </c>
       <c r="M24" t="n">
-        <v>74.82986942530904</v>
+        <v>74.82986942530906</v>
       </c>
       <c r="N24" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577121</v>
       </c>
       <c r="O24" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788716</v>
       </c>
       <c r="P24" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431031</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513408</v>
       </c>
       <c r="R24" t="n">
         <v>18.33636198000131</v>
       </c>
       <c r="S24" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661307</v>
       </c>
       <c r="T24" t="n">
         <v>1.190386879035122</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453902</v>
       </c>
       <c r="H25" t="n">
         <v>2.201341925039925</v>
       </c>
       <c r="I25" t="n">
-        <v>7.445847738274098</v>
+        <v>7.4458477382741</v>
       </c>
       <c r="J25" t="n">
         <v>17.50494493970908</v>
@@ -32871,34 +32871,34 @@
         <v>28.76600184254623</v>
       </c>
       <c r="L25" t="n">
-        <v>36.81057857065737</v>
+        <v>36.81057857065738</v>
       </c>
       <c r="M25" t="n">
         <v>38.81159387879693</v>
       </c>
       <c r="N25" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453687</v>
       </c>
       <c r="O25" t="n">
-        <v>34.99638471423388</v>
+        <v>34.99638471423389</v>
       </c>
       <c r="P25" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530791</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875536</v>
       </c>
       <c r="R25" t="n">
         <v>11.13275783358636</v>
       </c>
       <c r="S25" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381935</v>
       </c>
       <c r="T25" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103031</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.01350516518429403</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296041</v>
       </c>
       <c r="H26" t="n">
-        <v>5.652861741750558</v>
+        <v>5.652861741750559</v>
       </c>
       <c r="I26" t="n">
         <v>21.27981958245708</v>
       </c>
       <c r="J26" t="n">
-        <v>46.84775532809977</v>
+        <v>46.84775532809978</v>
       </c>
       <c r="K26" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905194</v>
       </c>
       <c r="L26" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626408</v>
       </c>
       <c r="M26" t="n">
-        <v>96.92108476125064</v>
+        <v>96.92108476125067</v>
       </c>
       <c r="N26" t="n">
-        <v>98.48936924056214</v>
+        <v>98.48936924056216</v>
       </c>
       <c r="O26" t="n">
-        <v>93.00071854415964</v>
+        <v>93.00071854415965</v>
       </c>
       <c r="P26" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977254</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.60653957421856</v>
+        <v>59.60653957421857</v>
       </c>
       <c r="R26" t="n">
         <v>34.67267925157952</v>
       </c>
       <c r="S26" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376087</v>
       </c>
       <c r="T26" t="n">
         <v>2.416248238692843</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636832</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,43 +33014,43 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923917</v>
       </c>
       <c r="H27" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479152</v>
       </c>
       <c r="I27" t="n">
         <v>10.1681577806591</v>
       </c>
       <c r="J27" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416277</v>
       </c>
       <c r="K27" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465301</v>
       </c>
       <c r="L27" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433488</v>
       </c>
       <c r="M27" t="n">
-        <v>74.82986942530904</v>
+        <v>74.82986942530906</v>
       </c>
       <c r="N27" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577121</v>
       </c>
       <c r="O27" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788716</v>
       </c>
       <c r="P27" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431031</v>
       </c>
       <c r="Q27" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513408</v>
       </c>
       <c r="R27" t="n">
         <v>18.33636198000131</v>
       </c>
       <c r="S27" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661307</v>
       </c>
       <c r="T27" t="n">
         <v>1.190386879035122</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453902</v>
       </c>
       <c r="H28" t="n">
         <v>2.201341925039925</v>
       </c>
       <c r="I28" t="n">
-        <v>7.445847738274098</v>
+        <v>7.4458477382741</v>
       </c>
       <c r="J28" t="n">
         <v>17.50494493970908</v>
@@ -33108,34 +33108,34 @@
         <v>28.76600184254623</v>
       </c>
       <c r="L28" t="n">
-        <v>36.81057857065737</v>
+        <v>36.81057857065738</v>
       </c>
       <c r="M28" t="n">
         <v>38.81159387879693</v>
       </c>
       <c r="N28" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453687</v>
       </c>
       <c r="O28" t="n">
-        <v>34.99638471423388</v>
+        <v>34.99638471423389</v>
       </c>
       <c r="P28" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530791</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875536</v>
       </c>
       <c r="R28" t="n">
         <v>11.13275783358636</v>
       </c>
       <c r="S28" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381935</v>
       </c>
       <c r="T28" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103031</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.01350516518429403</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296041</v>
       </c>
       <c r="H29" t="n">
-        <v>5.652861741750558</v>
+        <v>5.652861741750559</v>
       </c>
       <c r="I29" t="n">
         <v>21.27981958245708</v>
       </c>
       <c r="J29" t="n">
-        <v>46.84775532809977</v>
+        <v>46.84775532809978</v>
       </c>
       <c r="K29" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905194</v>
       </c>
       <c r="L29" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626408</v>
       </c>
       <c r="M29" t="n">
-        <v>96.92108476125064</v>
+        <v>96.92108476125067</v>
       </c>
       <c r="N29" t="n">
-        <v>98.48936924056214</v>
+        <v>98.48936924056216</v>
       </c>
       <c r="O29" t="n">
-        <v>93.00071854415964</v>
+        <v>93.00071854415965</v>
       </c>
       <c r="P29" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977254</v>
       </c>
       <c r="Q29" t="n">
-        <v>59.60653957421856</v>
+        <v>59.60653957421857</v>
       </c>
       <c r="R29" t="n">
         <v>34.67267925157952</v>
       </c>
       <c r="S29" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376087</v>
       </c>
       <c r="T29" t="n">
         <v>2.416248238692843</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636832</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,43 +33251,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923917</v>
       </c>
       <c r="H30" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479152</v>
       </c>
       <c r="I30" t="n">
         <v>10.1681577806591</v>
       </c>
       <c r="J30" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416277</v>
       </c>
       <c r="K30" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465301</v>
       </c>
       <c r="L30" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433488</v>
       </c>
       <c r="M30" t="n">
-        <v>74.82986942530904</v>
+        <v>74.82986942530906</v>
       </c>
       <c r="N30" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577121</v>
       </c>
       <c r="O30" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788716</v>
       </c>
       <c r="P30" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431031</v>
       </c>
       <c r="Q30" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513408</v>
       </c>
       <c r="R30" t="n">
         <v>18.33636198000131</v>
       </c>
       <c r="S30" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661307</v>
       </c>
       <c r="T30" t="n">
         <v>1.190386879035122</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453902</v>
       </c>
       <c r="H31" t="n">
         <v>2.201341925039925</v>
       </c>
       <c r="I31" t="n">
-        <v>7.445847738274098</v>
+        <v>7.4458477382741</v>
       </c>
       <c r="J31" t="n">
         <v>17.50494493970908</v>
@@ -33345,34 +33345,34 @@
         <v>28.76600184254623</v>
       </c>
       <c r="L31" t="n">
-        <v>36.81057857065737</v>
+        <v>36.81057857065738</v>
       </c>
       <c r="M31" t="n">
         <v>38.81159387879693</v>
       </c>
       <c r="N31" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453687</v>
       </c>
       <c r="O31" t="n">
-        <v>34.99638471423388</v>
+        <v>34.99638471423389</v>
       </c>
       <c r="P31" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530791</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875536</v>
       </c>
       <c r="R31" t="n">
         <v>11.13275783358636</v>
       </c>
       <c r="S31" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381935</v>
       </c>
       <c r="T31" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103031</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.01350516518429403</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296042</v>
       </c>
       <c r="H32" t="n">
-        <v>5.652861741750558</v>
+        <v>5.65286174175056</v>
       </c>
       <c r="I32" t="n">
-        <v>21.27981958245708</v>
+        <v>21.27981958245709</v>
       </c>
       <c r="J32" t="n">
-        <v>46.84775532809977</v>
+        <v>46.84775532809979</v>
       </c>
       <c r="K32" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905195</v>
       </c>
       <c r="L32" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626409</v>
       </c>
       <c r="M32" t="n">
-        <v>96.92108476125064</v>
+        <v>96.92108476125068</v>
       </c>
       <c r="N32" t="n">
-        <v>98.48936924056214</v>
+        <v>98.48936924056218</v>
       </c>
       <c r="O32" t="n">
-        <v>93.00071854415964</v>
+        <v>93.00071854415967</v>
       </c>
       <c r="P32" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977255</v>
       </c>
       <c r="Q32" t="n">
-        <v>59.60653957421856</v>
+        <v>59.60653957421859</v>
       </c>
       <c r="R32" t="n">
-        <v>34.67267925157952</v>
+        <v>34.67267925157953</v>
       </c>
       <c r="S32" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376087</v>
       </c>
       <c r="T32" t="n">
-        <v>2.416248238692843</v>
+        <v>2.416248238692844</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636833</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,43 +33488,43 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923917</v>
       </c>
       <c r="H33" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479153</v>
       </c>
       <c r="I33" t="n">
         <v>10.1681577806591</v>
       </c>
       <c r="J33" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416277</v>
       </c>
       <c r="K33" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465302</v>
       </c>
       <c r="L33" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433489</v>
       </c>
       <c r="M33" t="n">
-        <v>74.82986942530904</v>
+        <v>74.82986942530907</v>
       </c>
       <c r="N33" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577122</v>
       </c>
       <c r="O33" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788717</v>
       </c>
       <c r="P33" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431032</v>
       </c>
       <c r="Q33" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513408</v>
       </c>
       <c r="R33" t="n">
         <v>18.33636198000131</v>
       </c>
       <c r="S33" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661308</v>
       </c>
       <c r="T33" t="n">
         <v>1.190386879035122</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453903</v>
       </c>
       <c r="H34" t="n">
-        <v>2.201341925039925</v>
+        <v>2.201341925039926</v>
       </c>
       <c r="I34" t="n">
-        <v>7.445847738274098</v>
+        <v>7.445847738274102</v>
       </c>
       <c r="J34" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970909</v>
       </c>
       <c r="K34" t="n">
-        <v>28.76600184254623</v>
+        <v>28.76600184254624</v>
       </c>
       <c r="L34" t="n">
-        <v>36.81057857065737</v>
+        <v>36.81057857065739</v>
       </c>
       <c r="M34" t="n">
-        <v>38.81159387879693</v>
+        <v>38.81159387879694</v>
       </c>
       <c r="N34" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453688</v>
       </c>
       <c r="O34" t="n">
-        <v>34.99638471423388</v>
+        <v>34.9963847142339</v>
       </c>
       <c r="P34" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530791</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875536</v>
       </c>
       <c r="R34" t="n">
         <v>11.13275783358636</v>
       </c>
       <c r="S34" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381936</v>
       </c>
       <c r="T34" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103031</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.01350516518429403</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296044</v>
       </c>
       <c r="H35" t="n">
-        <v>5.652861741750558</v>
+        <v>5.652861741750562</v>
       </c>
       <c r="I35" t="n">
-        <v>21.27981958245708</v>
+        <v>21.27981958245709</v>
       </c>
       <c r="J35" t="n">
-        <v>46.84775532809977</v>
+        <v>46.84775532809979</v>
       </c>
       <c r="K35" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905197</v>
       </c>
       <c r="L35" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626411</v>
       </c>
       <c r="M35" t="n">
-        <v>96.92108476125064</v>
+        <v>96.9210847612507</v>
       </c>
       <c r="N35" t="n">
-        <v>98.48936924056214</v>
+        <v>98.4893692405622</v>
       </c>
       <c r="O35" t="n">
-        <v>93.00071854415964</v>
+        <v>93.0007185441597</v>
       </c>
       <c r="P35" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977257</v>
       </c>
       <c r="Q35" t="n">
-        <v>59.60653957421856</v>
+        <v>59.6065395742186</v>
       </c>
       <c r="R35" t="n">
-        <v>34.67267925157952</v>
+        <v>34.67267925157954</v>
       </c>
       <c r="S35" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376087</v>
       </c>
       <c r="T35" t="n">
-        <v>2.416248238692843</v>
+        <v>2.416248238692844</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636833</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923918</v>
       </c>
       <c r="H36" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479153</v>
       </c>
       <c r="I36" t="n">
-        <v>10.1681577806591</v>
+        <v>10.16815778065911</v>
       </c>
       <c r="J36" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416278</v>
       </c>
       <c r="K36" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465303</v>
       </c>
       <c r="L36" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433491</v>
       </c>
       <c r="M36" t="n">
-        <v>74.82986942530904</v>
+        <v>74.8298694253091</v>
       </c>
       <c r="N36" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577124</v>
       </c>
       <c r="O36" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788719</v>
       </c>
       <c r="P36" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431033</v>
       </c>
       <c r="Q36" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513409</v>
       </c>
       <c r="R36" t="n">
-        <v>18.33636198000131</v>
+        <v>18.33636198000132</v>
       </c>
       <c r="S36" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661309</v>
       </c>
       <c r="T36" t="n">
-        <v>1.190386879035122</v>
+        <v>1.190386879035123</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01942960085476262</v>
+        <v>0.01942960085476263</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453903</v>
       </c>
       <c r="H37" t="n">
-        <v>2.201341925039925</v>
+        <v>2.201341925039926</v>
       </c>
       <c r="I37" t="n">
-        <v>7.445847738274098</v>
+        <v>7.445847738274103</v>
       </c>
       <c r="J37" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970909</v>
       </c>
       <c r="K37" t="n">
-        <v>28.76600184254623</v>
+        <v>28.76600184254625</v>
       </c>
       <c r="L37" t="n">
-        <v>36.81057857065737</v>
+        <v>36.8105785706574</v>
       </c>
       <c r="M37" t="n">
-        <v>38.81159387879693</v>
+        <v>38.81159387879695</v>
       </c>
       <c r="N37" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453689</v>
       </c>
       <c r="O37" t="n">
-        <v>34.99638471423388</v>
+        <v>34.9963847142339</v>
       </c>
       <c r="P37" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530792</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875536</v>
       </c>
       <c r="R37" t="n">
         <v>11.13275783358636</v>
       </c>
       <c r="S37" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381937</v>
       </c>
       <c r="T37" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103031</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.01350516518429403</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296044</v>
       </c>
       <c r="H38" t="n">
-        <v>5.652861741750558</v>
+        <v>5.652861741750562</v>
       </c>
       <c r="I38" t="n">
-        <v>21.27981958245708</v>
+        <v>21.27981958245709</v>
       </c>
       <c r="J38" t="n">
-        <v>46.84775532809977</v>
+        <v>46.84775532809979</v>
       </c>
       <c r="K38" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905197</v>
       </c>
       <c r="L38" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626411</v>
       </c>
       <c r="M38" t="n">
-        <v>96.92108476125064</v>
+        <v>96.9210847612507</v>
       </c>
       <c r="N38" t="n">
-        <v>98.48936924056214</v>
+        <v>98.4893692405622</v>
       </c>
       <c r="O38" t="n">
-        <v>93.00071854415964</v>
+        <v>93.0007185441597</v>
       </c>
       <c r="P38" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977257</v>
       </c>
       <c r="Q38" t="n">
-        <v>59.60653957421856</v>
+        <v>59.6065395742186</v>
       </c>
       <c r="R38" t="n">
-        <v>34.67267925157952</v>
+        <v>34.67267925157954</v>
       </c>
       <c r="S38" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376087</v>
       </c>
       <c r="T38" t="n">
-        <v>2.416248238692843</v>
+        <v>2.416248238692844</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636833</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923918</v>
       </c>
       <c r="H39" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479153</v>
       </c>
       <c r="I39" t="n">
-        <v>10.1681577806591</v>
+        <v>10.16815778065911</v>
       </c>
       <c r="J39" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416278</v>
       </c>
       <c r="K39" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465303</v>
       </c>
       <c r="L39" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433491</v>
       </c>
       <c r="M39" t="n">
-        <v>74.82986942530904</v>
+        <v>74.8298694253091</v>
       </c>
       <c r="N39" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577124</v>
       </c>
       <c r="O39" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788719</v>
       </c>
       <c r="P39" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431033</v>
       </c>
       <c r="Q39" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513409</v>
       </c>
       <c r="R39" t="n">
-        <v>18.33636198000131</v>
+        <v>18.33636198000132</v>
       </c>
       <c r="S39" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661309</v>
       </c>
       <c r="T39" t="n">
-        <v>1.190386879035122</v>
+        <v>1.190386879035123</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01942960085476262</v>
+        <v>0.01942960085476263</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453903</v>
       </c>
       <c r="H40" t="n">
-        <v>2.201341925039925</v>
+        <v>2.201341925039926</v>
       </c>
       <c r="I40" t="n">
-        <v>7.445847738274098</v>
+        <v>7.445847738274103</v>
       </c>
       <c r="J40" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970909</v>
       </c>
       <c r="K40" t="n">
-        <v>28.76600184254623</v>
+        <v>28.76600184254625</v>
       </c>
       <c r="L40" t="n">
-        <v>36.81057857065737</v>
+        <v>36.8105785706574</v>
       </c>
       <c r="M40" t="n">
-        <v>38.81159387879693</v>
+        <v>38.81159387879695</v>
       </c>
       <c r="N40" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453689</v>
       </c>
       <c r="O40" t="n">
-        <v>34.99638471423388</v>
+        <v>34.9963847142339</v>
       </c>
       <c r="P40" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530792</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875536</v>
       </c>
       <c r="R40" t="n">
         <v>11.13275783358636</v>
       </c>
       <c r="S40" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381937</v>
       </c>
       <c r="T40" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103031</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.01350516518429403</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296044</v>
       </c>
       <c r="H41" t="n">
-        <v>5.652861741750558</v>
+        <v>5.652861741750562</v>
       </c>
       <c r="I41" t="n">
-        <v>21.27981958245708</v>
+        <v>21.27981958245709</v>
       </c>
       <c r="J41" t="n">
-        <v>46.84775532809977</v>
+        <v>46.84775532809979</v>
       </c>
       <c r="K41" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905197</v>
       </c>
       <c r="L41" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626411</v>
       </c>
       <c r="M41" t="n">
-        <v>96.92108476125064</v>
+        <v>96.9210847612507</v>
       </c>
       <c r="N41" t="n">
-        <v>98.48936924056214</v>
+        <v>98.4893692405622</v>
       </c>
       <c r="O41" t="n">
-        <v>93.00071854415964</v>
+        <v>93.0007185441597</v>
       </c>
       <c r="P41" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977257</v>
       </c>
       <c r="Q41" t="n">
-        <v>59.60653957421856</v>
+        <v>59.6065395742186</v>
       </c>
       <c r="R41" t="n">
-        <v>34.67267925157952</v>
+        <v>34.67267925157954</v>
       </c>
       <c r="S41" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376087</v>
       </c>
       <c r="T41" t="n">
-        <v>2.416248238692843</v>
+        <v>2.416248238692844</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636833</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923918</v>
       </c>
       <c r="H42" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479153</v>
       </c>
       <c r="I42" t="n">
-        <v>10.1681577806591</v>
+        <v>10.16815778065911</v>
       </c>
       <c r="J42" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416278</v>
       </c>
       <c r="K42" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465303</v>
       </c>
       <c r="L42" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433491</v>
       </c>
       <c r="M42" t="n">
-        <v>74.82986942530904</v>
+        <v>74.8298694253091</v>
       </c>
       <c r="N42" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577124</v>
       </c>
       <c r="O42" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788719</v>
       </c>
       <c r="P42" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431033</v>
       </c>
       <c r="Q42" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513409</v>
       </c>
       <c r="R42" t="n">
-        <v>18.33636198000131</v>
+        <v>18.33636198000132</v>
       </c>
       <c r="S42" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661309</v>
       </c>
       <c r="T42" t="n">
-        <v>1.190386879035122</v>
+        <v>1.190386879035123</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01942960085476262</v>
+        <v>0.01942960085476263</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453903</v>
       </c>
       <c r="H43" t="n">
-        <v>2.201341925039925</v>
+        <v>2.201341925039926</v>
       </c>
       <c r="I43" t="n">
-        <v>7.445847738274098</v>
+        <v>7.445847738274103</v>
       </c>
       <c r="J43" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970909</v>
       </c>
       <c r="K43" t="n">
-        <v>28.76600184254623</v>
+        <v>28.76600184254625</v>
       </c>
       <c r="L43" t="n">
-        <v>36.81057857065737</v>
+        <v>36.8105785706574</v>
       </c>
       <c r="M43" t="n">
-        <v>38.81159387879693</v>
+        <v>38.81159387879695</v>
       </c>
       <c r="N43" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453689</v>
       </c>
       <c r="O43" t="n">
-        <v>34.99638471423388</v>
+        <v>34.9963847142339</v>
       </c>
       <c r="P43" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530792</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875536</v>
       </c>
       <c r="R43" t="n">
         <v>11.13275783358636</v>
       </c>
       <c r="S43" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381937</v>
       </c>
       <c r="T43" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103031</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.01350516518429403</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296044</v>
       </c>
       <c r="H44" t="n">
-        <v>5.652861741750558</v>
+        <v>5.652861741750562</v>
       </c>
       <c r="I44" t="n">
-        <v>21.27981958245708</v>
+        <v>21.27981958245709</v>
       </c>
       <c r="J44" t="n">
-        <v>46.84775532809977</v>
+        <v>46.84775532809979</v>
       </c>
       <c r="K44" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905197</v>
       </c>
       <c r="L44" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626411</v>
       </c>
       <c r="M44" t="n">
-        <v>96.92108476125064</v>
+        <v>96.9210847612507</v>
       </c>
       <c r="N44" t="n">
-        <v>98.48936924056214</v>
+        <v>98.4893692405622</v>
       </c>
       <c r="O44" t="n">
-        <v>93.00071854415964</v>
+        <v>93.0007185441597</v>
       </c>
       <c r="P44" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977257</v>
       </c>
       <c r="Q44" t="n">
-        <v>59.60653957421856</v>
+        <v>59.6065395742186</v>
       </c>
       <c r="R44" t="n">
-        <v>34.67267925157952</v>
+        <v>34.67267925157954</v>
       </c>
       <c r="S44" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376087</v>
       </c>
       <c r="T44" t="n">
-        <v>2.416248238692843</v>
+        <v>2.416248238692844</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636833</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923918</v>
       </c>
       <c r="H45" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479153</v>
       </c>
       <c r="I45" t="n">
-        <v>10.1681577806591</v>
+        <v>10.16815778065911</v>
       </c>
       <c r="J45" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416278</v>
       </c>
       <c r="K45" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465303</v>
       </c>
       <c r="L45" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433491</v>
       </c>
       <c r="M45" t="n">
-        <v>74.82986942530904</v>
+        <v>74.8298694253091</v>
       </c>
       <c r="N45" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577124</v>
       </c>
       <c r="O45" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788719</v>
       </c>
       <c r="P45" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431033</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513409</v>
       </c>
       <c r="R45" t="n">
-        <v>18.33636198000131</v>
+        <v>18.33636198000132</v>
       </c>
       <c r="S45" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661309</v>
       </c>
       <c r="T45" t="n">
-        <v>1.190386879035122</v>
+        <v>1.190386879035123</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01942960085476262</v>
+        <v>0.01942960085476263</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453903</v>
       </c>
       <c r="H46" t="n">
-        <v>2.201341925039925</v>
+        <v>2.201341925039926</v>
       </c>
       <c r="I46" t="n">
-        <v>7.445847738274098</v>
+        <v>7.445847738274103</v>
       </c>
       <c r="J46" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970909</v>
       </c>
       <c r="K46" t="n">
-        <v>28.76600184254623</v>
+        <v>28.76600184254625</v>
       </c>
       <c r="L46" t="n">
-        <v>36.81057857065737</v>
+        <v>36.8105785706574</v>
       </c>
       <c r="M46" t="n">
-        <v>38.81159387879693</v>
+        <v>38.81159387879695</v>
       </c>
       <c r="N46" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453689</v>
       </c>
       <c r="O46" t="n">
-        <v>34.99638471423388</v>
+        <v>34.9963847142339</v>
       </c>
       <c r="P46" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530792</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875536</v>
       </c>
       <c r="R46" t="n">
         <v>11.13275783358636</v>
       </c>
       <c r="S46" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381937</v>
       </c>
       <c r="T46" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103031</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.01350516518429403</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>119.5735576238631</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35416,13 +35416,13 @@
         <v>438.504356798735</v>
       </c>
       <c r="M11" t="n">
-        <v>94.43438746110188</v>
+        <v>494.1323638047738</v>
       </c>
       <c r="N11" t="n">
         <v>480.6422568039114</v>
       </c>
       <c r="O11" t="n">
-        <v>401.0861574056081</v>
+        <v>120.9617386858005</v>
       </c>
       <c r="P11" t="n">
         <v>309.8354732015434</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>88.76497641002756</v>
       </c>
       <c r="K12" t="n">
         <v>279.4979465943385</v>
       </c>
       <c r="L12" t="n">
-        <v>433.641174677684</v>
+        <v>297.9685167273137</v>
       </c>
       <c r="M12" t="n">
-        <v>260.8953053063896</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>504.8668763435791</v>
       </c>
       <c r="O12" t="n">
         <v>466.4280702865244</v>
@@ -35507,7 +35507,7 @@
         <v>361.5424573420853</v>
       </c>
       <c r="Q12" t="n">
-        <v>197.0638894968454</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.27975764525976</v>
+        <v>60.27975764525974</v>
       </c>
       <c r="K13" t="n">
         <v>164.9411047325542</v>
@@ -35586,7 +35586,7 @@
         <v>195.7814608591486</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.81219039142718</v>
+        <v>84.81219039142715</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>119.5735576238631</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>312.7786735775194</v>
+        <v>312.7786735775193</v>
       </c>
       <c r="L14" t="n">
         <v>438.504356798735</v>
       </c>
       <c r="M14" t="n">
-        <v>190.0922378882542</v>
+        <v>309.6657955121165</v>
       </c>
       <c r="N14" t="n">
-        <v>480.6422568039114</v>
+        <v>480.6422568039113</v>
       </c>
       <c r="O14" t="n">
-        <v>401.0861574056081</v>
+        <v>401.086157405608</v>
       </c>
       <c r="P14" t="n">
         <v>309.8354732015434</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>88.76497641002756</v>
+        <v>88.76497641002754</v>
       </c>
       <c r="K15" t="n">
         <v>279.4979465943385</v>
@@ -35735,7 +35735,7 @@
         <v>564.7625497386691</v>
       </c>
       <c r="N15" t="n">
-        <v>15.8043031623644</v>
+        <v>15.80430316236348</v>
       </c>
       <c r="O15" t="n">
         <v>466.4280702865244</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.27975764525976</v>
+        <v>60.27975764525973</v>
       </c>
       <c r="K16" t="n">
         <v>164.9411047325542</v>
@@ -35811,7 +35811,7 @@
         <v>240.6653700016917</v>
       </c>
       <c r="M16" t="n">
-        <v>260.2284325091669</v>
+        <v>260.2284325091668</v>
       </c>
       <c r="N16" t="n">
         <v>259.7387468498549</v>
@@ -35823,7 +35823,7 @@
         <v>195.7814608591486</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.81219039142718</v>
+        <v>84.81219039142715</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>438.504356798735</v>
       </c>
       <c r="M17" t="n">
-        <v>190.0922378882542</v>
+        <v>345.0848922973577</v>
       </c>
       <c r="N17" t="n">
         <v>480.6422568039114</v>
@@ -35902,7 +35902,7 @@
         <v>309.8354732015434</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.9926544091044</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>564.7625497386691</v>
       </c>
       <c r="N18" t="n">
-        <v>15.8043031623644</v>
+        <v>15.80430316236348</v>
       </c>
       <c r="O18" t="n">
         <v>466.4280702865244</v>
@@ -36127,7 +36127,7 @@
         <v>438.504356798735</v>
       </c>
       <c r="M20" t="n">
-        <v>190.0922378882542</v>
+        <v>190.0922378882534</v>
       </c>
       <c r="N20" t="n">
         <v>480.6422568039114</v>
@@ -36209,7 +36209,7 @@
         <v>564.7625497386691</v>
       </c>
       <c r="N21" t="n">
-        <v>15.8043031623644</v>
+        <v>15.80430316236348</v>
       </c>
       <c r="O21" t="n">
         <v>466.4280702865244</v>
@@ -36364,7 +36364,7 @@
         <v>438.504356798735</v>
       </c>
       <c r="M23" t="n">
-        <v>190.0922378882542</v>
+        <v>190.0922378882551</v>
       </c>
       <c r="N23" t="n">
         <v>480.6422568039114</v>
@@ -36446,7 +36446,7 @@
         <v>564.7625497386691</v>
       </c>
       <c r="N24" t="n">
-        <v>15.8043031623644</v>
+        <v>15.80430316236509</v>
       </c>
       <c r="O24" t="n">
         <v>466.4280702865244</v>
@@ -36601,13 +36601,13 @@
         <v>540.7358357042547</v>
       </c>
       <c r="M26" t="n">
-        <v>596.3638427102935</v>
+        <v>494.1323638047738</v>
       </c>
       <c r="N26" t="n">
-        <v>572.2989611126721</v>
+        <v>572.2989611126737</v>
       </c>
       <c r="O26" t="n">
-        <v>401.0861574056081</v>
+        <v>503.3176363111277</v>
       </c>
       <c r="P26" t="n">
         <v>412.0669521070631</v>
@@ -36616,7 +36616,7 @@
         <v>257.2241333146241</v>
       </c>
       <c r="R26" t="n">
-        <v>47.172254517994</v>
+        <v>47.17225451799398</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.27975764525975</v>
+        <v>60.27975764525972</v>
       </c>
       <c r="K28" t="n">
         <v>164.9411047325542</v>
@@ -36759,7 +36759,7 @@
         <v>240.6653700016917</v>
       </c>
       <c r="M28" t="n">
-        <v>260.2284325091669</v>
+        <v>260.2284325091667</v>
       </c>
       <c r="N28" t="n">
         <v>259.7387468498549</v>
@@ -36768,10 +36768,10 @@
         <v>236.6860924032785</v>
       </c>
       <c r="P28" t="n">
-        <v>195.781460859148</v>
+        <v>195.7814608591486</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.81219039142717</v>
+        <v>84.81219039142714</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,22 +36835,22 @@
         <v>415.010152483039</v>
       </c>
       <c r="L29" t="n">
-        <v>540.7358357042547</v>
+        <v>530.1610611074968</v>
       </c>
       <c r="M29" t="n">
-        <v>596.3638427102935</v>
+        <v>494.1323638047738</v>
       </c>
       <c r="N29" t="n">
-        <v>480.6422568039114</v>
+        <v>582.873735709431</v>
       </c>
       <c r="O29" t="n">
-        <v>503.3176363111278</v>
+        <v>503.3176363111277</v>
       </c>
       <c r="P29" t="n">
         <v>412.0669521070631</v>
       </c>
       <c r="Q29" t="n">
-        <v>246.649358717866</v>
+        <v>257.2241333146241</v>
       </c>
       <c r="R29" t="n">
         <v>47.17225451799398</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.27975764525974</v>
+        <v>60.27975764525972</v>
       </c>
       <c r="K31" t="n">
         <v>164.9411047325542</v>
@@ -36996,7 +36996,7 @@
         <v>240.6653700016917</v>
       </c>
       <c r="M31" t="n">
-        <v>260.2284325091669</v>
+        <v>260.2284325091668</v>
       </c>
       <c r="N31" t="n">
         <v>259.7387468498549</v>
@@ -37005,10 +37005,10 @@
         <v>236.6860924032785</v>
       </c>
       <c r="P31" t="n">
-        <v>195.7814608591486</v>
+        <v>195.7814608591485</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.81219039142715</v>
+        <v>84.81219039142714</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>221.8050365293827</v>
+        <v>221.8050365293826</v>
       </c>
       <c r="K32" t="n">
-        <v>415.010152483039</v>
+        <v>404.4353778862817</v>
       </c>
       <c r="L32" t="n">
         <v>438.504356798735</v>
       </c>
       <c r="M32" t="n">
-        <v>585.789068113535</v>
+        <v>596.3638427102934</v>
       </c>
       <c r="N32" t="n">
         <v>582.873735709431</v>
       </c>
       <c r="O32" t="n">
-        <v>503.3176363111278</v>
+        <v>503.3176363111277</v>
       </c>
       <c r="P32" t="n">
         <v>412.0669521070631</v>
       </c>
       <c r="Q32" t="n">
-        <v>257.2241333146241</v>
+        <v>257.224133314624</v>
       </c>
       <c r="R32" t="n">
-        <v>47.17225451799398</v>
+        <v>47.17225451799393</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>279.4979465943385</v>
       </c>
       <c r="L33" t="n">
         <v>433.641174677684</v>
@@ -37157,7 +37157,7 @@
         <v>564.7625497386691</v>
       </c>
       <c r="N33" t="n">
-        <v>481.5222186628643</v>
+        <v>202.0242720685258</v>
       </c>
       <c r="O33" t="n">
         <v>466.4280702865244</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.27975764525974</v>
+        <v>60.27975764525966</v>
       </c>
       <c r="K34" t="n">
-        <v>164.9411047325542</v>
+        <v>164.9411047325541</v>
       </c>
       <c r="L34" t="n">
-        <v>240.6653700016917</v>
+        <v>240.6653700016916</v>
       </c>
       <c r="M34" t="n">
-        <v>260.2284325091668</v>
+        <v>260.2284325091676</v>
       </c>
       <c r="N34" t="n">
-        <v>259.7387468498546</v>
+        <v>259.7387468498548</v>
       </c>
       <c r="O34" t="n">
-        <v>236.6860924032785</v>
+        <v>236.6860924032784</v>
       </c>
       <c r="P34" t="n">
-        <v>195.7814608591486</v>
+        <v>195.7814608591485</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.81219039142715</v>
+        <v>84.81219039142709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>438.504356798735</v>
       </c>
       <c r="M35" t="n">
-        <v>494.1323638047738</v>
+        <v>494.1323638047739</v>
       </c>
       <c r="N35" t="n">
         <v>480.6422568039114</v>
@@ -37321,10 +37321,10 @@
         <v>401.0861574056081</v>
       </c>
       <c r="P35" t="n">
-        <v>309.8354732015434</v>
+        <v>309.8354732015435</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.9926544091044</v>
+        <v>154.9926544091045</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.76497641002756</v>
+        <v>88.76497641002757</v>
       </c>
       <c r="K36" t="n">
         <v>279.4979465943385</v>
@@ -37394,10 +37394,10 @@
         <v>564.7625497386691</v>
       </c>
       <c r="N36" t="n">
-        <v>113.259295658498</v>
+        <v>579.6873659450225</v>
       </c>
       <c r="O36" t="n">
-        <v>466.4280702865244</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>361.5424573420853</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.70962582703453</v>
+        <v>62.70962582703454</v>
       </c>
       <c r="L37" t="n">
         <v>138.433891096172</v>
@@ -37479,7 +37479,7 @@
         <v>134.4546134977588</v>
       </c>
       <c r="P37" t="n">
-        <v>93.5499819536289</v>
+        <v>93.54998195362893</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>438.504356798735</v>
       </c>
       <c r="M38" t="n">
-        <v>494.1323638047738</v>
+        <v>494.1323638047739</v>
       </c>
       <c r="N38" t="n">
         <v>480.6422568039114</v>
@@ -37561,7 +37561,7 @@
         <v>309.8354732015439</v>
       </c>
       <c r="Q38" t="n">
-        <v>154.9926544091044</v>
+        <v>154.9926544091045</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.76497641002756</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>279.4979465943385</v>
@@ -37631,7 +37631,7 @@
         <v>564.7625497386691</v>
       </c>
       <c r="N39" t="n">
-        <v>113.259295658498</v>
+        <v>399.0881615653714</v>
       </c>
       <c r="O39" t="n">
         <v>466.4280702865244</v>
@@ -37640,7 +37640,7 @@
         <v>361.5424573420853</v>
       </c>
       <c r="Q39" t="n">
-        <v>197.0638894968454</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.70962582703453</v>
+        <v>62.70962582703454</v>
       </c>
       <c r="L40" t="n">
         <v>138.433891096172</v>
@@ -37716,7 +37716,7 @@
         <v>134.4546134977588</v>
       </c>
       <c r="P40" t="n">
-        <v>93.5499819536289</v>
+        <v>93.54998195362893</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>438.504356798735</v>
       </c>
       <c r="M41" t="n">
-        <v>494.1323638047738</v>
+        <v>494.1323638047739</v>
       </c>
       <c r="N41" t="n">
         <v>480.6422568039114</v>
@@ -37795,10 +37795,10 @@
         <v>401.0861574056081</v>
       </c>
       <c r="P41" t="n">
-        <v>309.8354732015434</v>
+        <v>309.8354732015435</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.9926544091044</v>
+        <v>154.9926544091045</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.76497641002756</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>279.4979465943385</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>433.641174677684</v>
@@ -37868,7 +37868,7 @@
         <v>564.7625497386691</v>
       </c>
       <c r="N42" t="n">
-        <v>113.259295658498</v>
+        <v>481.5222186628641</v>
       </c>
       <c r="O42" t="n">
         <v>466.4280702865244</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.70962582703453</v>
+        <v>62.70962582703454</v>
       </c>
       <c r="L43" t="n">
         <v>138.433891096172</v>
@@ -37953,7 +37953,7 @@
         <v>134.4546134977588</v>
       </c>
       <c r="P43" t="n">
-        <v>93.5499819536289</v>
+        <v>93.54998195362893</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>119.5735576238625</v>
+        <v>119.5735576238631</v>
       </c>
       <c r="K44" t="n">
         <v>312.7786735775194</v>
@@ -38023,7 +38023,7 @@
         <v>438.504356798735</v>
       </c>
       <c r="M44" t="n">
-        <v>494.1323638047738</v>
+        <v>494.1323638047739</v>
       </c>
       <c r="N44" t="n">
         <v>480.6422568039114</v>
@@ -38032,10 +38032,10 @@
         <v>401.0861574056081</v>
       </c>
       <c r="P44" t="n">
-        <v>309.8354732015434</v>
+        <v>309.8354732015435</v>
       </c>
       <c r="Q44" t="n">
-        <v>154.9926544091044</v>
+        <v>154.9926544091047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.76497641002756</v>
+        <v>88.76497641002757</v>
       </c>
       <c r="K45" t="n">
         <v>279.4979465943385</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.70962582703453</v>
+        <v>62.70962582703454</v>
       </c>
       <c r="L46" t="n">
         <v>138.433891096172</v>
@@ -38190,7 +38190,7 @@
         <v>134.4546134977588</v>
       </c>
       <c r="P46" t="n">
-        <v>93.5499819536289</v>
+        <v>93.54998195362893</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
